--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_3.5E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_3.5E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4582 +417,4182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>94.7</v>
+        <v>112.3</v>
       </c>
       <c r="B2">
-        <v>24249.90123616384</v>
+        <v>49476.14593224983</v>
       </c>
       <c r="C2">
-        <v>32.88416600581513</v>
+        <v>5586.758052689616</v>
       </c>
       <c r="D2">
-        <v>5580.79778790418</v>
+        <v>51816.01181714941</v>
       </c>
       <c r="E2">
-        <v>323.6827495832047</v>
+        <v>1599.682927975632</v>
       </c>
       <c r="F2">
-        <v>127.574242589086</v>
+        <v>692.4371684168433</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>94.8</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>5063.658610634027</v>
+        <v>37644.43682364801</v>
       </c>
       <c r="C3">
-        <v>1018.999771841262</v>
+        <v>3917.143953131782</v>
       </c>
       <c r="D3">
-        <v>6854.029074516966</v>
+        <v>48120.5439743999</v>
       </c>
       <c r="E3">
-        <v>696.5286311125546</v>
+        <v>1152.370482091219</v>
       </c>
       <c r="F3">
-        <v>697.9859115123932</v>
+        <v>938.3081506805696</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>94.8</v>
+        <v>117.7</v>
       </c>
       <c r="B4">
-        <v>4693.658610634027</v>
+        <v>40072.72771504618</v>
       </c>
       <c r="C4">
-        <v>2758.999771841262</v>
+        <v>2447.529853573962</v>
       </c>
       <c r="D4">
-        <v>9154.029074516966</v>
+        <v>44035.07613165044</v>
       </c>
       <c r="E4">
-        <v>1456.528631112555</v>
+        <v>95.05803620680263</v>
       </c>
       <c r="F4">
-        <v>787.9859115123932</v>
+        <v>934.1791329442959</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>94.7</v>
+        <v>120.5</v>
       </c>
       <c r="B5">
-        <v>3589.901236163842</v>
+        <v>35243.17752834791</v>
       </c>
       <c r="C5">
-        <v>1792.884166005815</v>
+        <v>2136.448565143628</v>
       </c>
       <c r="D5">
-        <v>9110.797787904179</v>
+        <v>38967.92429472502</v>
       </c>
       <c r="E5">
-        <v>1833.682749583205</v>
+        <v>971.178462697043</v>
       </c>
       <c r="F5">
-        <v>707.574242589086</v>
+        <v>610.6379293659375</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>94.7</v>
+        <v>123</v>
       </c>
       <c r="B6">
-        <v>3859.901236163842</v>
+        <v>21357.15057593887</v>
       </c>
       <c r="C6">
-        <v>3842.884166005815</v>
+        <v>2929.768843330821</v>
       </c>
       <c r="D6">
-        <v>8650.797787904179</v>
+        <v>36895.82444032736</v>
       </c>
       <c r="E6">
-        <v>1703.682749583205</v>
+        <v>87.00027206332766</v>
       </c>
       <c r="F6">
-        <v>707.574242589086</v>
+        <v>355.3332833138315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>94.7</v>
+        <v>125.3</v>
       </c>
       <c r="B7">
-        <v>2449.901236163842</v>
+        <v>21706.80577972248</v>
       </c>
       <c r="C7">
-        <v>5102.884166005815</v>
+        <v>1796.023499263043</v>
       </c>
       <c r="D7">
-        <v>8870.797787904179</v>
+        <v>30567.09257428149</v>
       </c>
       <c r="E7">
-        <v>2193.682749583205</v>
+        <v>975.9563366803065</v>
       </c>
       <c r="F7">
-        <v>827.574242589086</v>
+        <v>18.85300894589534</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>94.7</v>
+        <v>127.6</v>
       </c>
       <c r="B8">
-        <v>7299.901236163843</v>
+        <v>16866.46098350608</v>
       </c>
       <c r="C8">
-        <v>5512.884166005815</v>
+        <v>2272.278155195279</v>
       </c>
       <c r="D8">
-        <v>8870.797787904179</v>
+        <v>28998.36070823563</v>
       </c>
       <c r="E8">
-        <v>2213.682749583205</v>
+        <v>594.9124012972891</v>
       </c>
       <c r="F8">
-        <v>747.574242589086</v>
+        <v>422.3727345779573</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>94.7</v>
+        <v>129.8</v>
       </c>
       <c r="B9">
-        <v>5669.901236163842</v>
+        <v>20993.95726538603</v>
       </c>
       <c r="C9">
-        <v>4482.884166005815</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>9950.797787904179</v>
+        <v>25021.31283636567</v>
       </c>
       <c r="E9">
-        <v>1883.682749583205</v>
+        <v>930.4355935396184</v>
       </c>
       <c r="F9">
-        <v>527.574242589086</v>
+        <v>245.3046460521059</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>94.7</v>
+        <v>132.3</v>
       </c>
       <c r="B10">
-        <v>9459.901236163843</v>
+        <v>17927.93031297698</v>
       </c>
       <c r="C10">
-        <v>5692.884166005815</v>
+        <v>1483.320278187208</v>
       </c>
       <c r="D10">
-        <v>9330.797787904179</v>
+        <v>24169.212981968</v>
       </c>
       <c r="E10">
-        <v>2373.682749583205</v>
+        <v>1376.257402905903</v>
       </c>
       <c r="F10">
-        <v>657.574242589086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>94.7</v>
+        <v>134.4</v>
       </c>
       <c r="B11">
-        <v>8949.901236163843</v>
+        <v>19723.26767295325</v>
       </c>
       <c r="C11">
-        <v>7202.884166005815</v>
+        <v>252.5093118644427</v>
       </c>
       <c r="D11">
-        <v>12590.79778790418</v>
+        <v>21063.84910427393</v>
       </c>
       <c r="E11">
-        <v>2853.682749583205</v>
+        <v>248.3477227735796</v>
       </c>
       <c r="F11">
-        <v>387.574242589086</v>
+        <v>502.3440973162316</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>94.8</v>
+        <v>136.5</v>
       </c>
       <c r="B12">
-        <v>5473.658610634027</v>
+        <v>8398.605032929627</v>
       </c>
       <c r="C12">
-        <v>6748.999771841263</v>
+        <v>1421.698345541708</v>
       </c>
       <c r="D12">
-        <v>24714.02907451697</v>
+        <v>18878.48522657991</v>
       </c>
       <c r="E12">
-        <v>3646.528631112555</v>
+        <v>120.4380426412599</v>
       </c>
       <c r="F12">
-        <v>797.9859115123932</v>
+        <v>354.6881946324632</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>95.09999999999999</v>
+        <v>138.7</v>
       </c>
       <c r="B13">
-        <v>7664.930734044816</v>
+        <v>8726.101314809566</v>
       </c>
       <c r="C13">
-        <v>16067.3465893476</v>
+        <v>2399.420190346429</v>
       </c>
       <c r="D13">
-        <v>39383.72293435531</v>
+        <v>17611.43735470994</v>
       </c>
       <c r="E13">
-        <v>4065.066275700608</v>
+        <v>925.9612348835894</v>
       </c>
       <c r="F13">
-        <v>2099.220918282318</v>
+        <v>1047.62010610661</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>95.7</v>
+        <v>140.9</v>
       </c>
       <c r="B14">
-        <v>20967.47498086628</v>
+        <v>14303.59759668951</v>
       </c>
       <c r="C14">
-        <v>19804.04022436028</v>
+        <v>2377.142035151163</v>
       </c>
       <c r="D14">
-        <v>36313.11065403198</v>
+        <v>17074.38948283998</v>
       </c>
       <c r="E14">
-        <v>4112.141564876715</v>
+        <v>1101.484427125919</v>
       </c>
       <c r="F14">
-        <v>2251.690931822168</v>
+        <v>760.5520175807585</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>96.59999999999999</v>
+        <v>143.1</v>
       </c>
       <c r="B15">
-        <v>37551.29135109841</v>
+        <v>10621.09387856956</v>
       </c>
       <c r="C15">
-        <v>14669.08067687932</v>
+        <v>3384.863879955899</v>
       </c>
       <c r="D15">
-        <v>38502.192233547</v>
+        <v>17187.34161097005</v>
       </c>
       <c r="E15">
-        <v>4007.754498640877</v>
+        <v>707.0076193682482</v>
       </c>
       <c r="F15">
-        <v>1455.395952131945</v>
+        <v>803.4839290549053</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>97.90000000000001</v>
+        <v>145.7</v>
       </c>
       <c r="B16">
-        <v>37680.13721921164</v>
+        <v>11177.22584806407</v>
       </c>
       <c r="C16">
-        <v>12468.58355274012</v>
+        <v>2826.716969270594</v>
       </c>
       <c r="D16">
-        <v>60354.19895951313</v>
+        <v>15783.55776239644</v>
       </c>
       <c r="E16">
-        <v>5914.750958522442</v>
+        <v>1286.262301109186</v>
       </c>
       <c r="F16">
-        <v>1470.747648134953</v>
+        <v>1618.767097160715</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>99.59999999999999</v>
+        <v>147.9</v>
       </c>
       <c r="B17">
-        <v>36724.01258520585</v>
+        <v>10274.72212994401</v>
       </c>
       <c r="C17">
-        <v>11642.54885194271</v>
+        <v>3624.438814075329</v>
       </c>
       <c r="D17">
-        <v>75799.13083193038</v>
+        <v>14566.50989052648</v>
       </c>
       <c r="E17">
-        <v>6923.13094452141</v>
+        <v>1801.785493351512</v>
       </c>
       <c r="F17">
-        <v>877.7460198311942</v>
+        <v>2581.699008634863</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>101.7</v>
+        <v>150.2</v>
       </c>
       <c r="B18">
-        <v>42532.91744908091</v>
+        <v>7824.377333727614</v>
       </c>
       <c r="C18">
-        <v>10970.9765744871</v>
+        <v>5100.693470007551</v>
       </c>
       <c r="D18">
-        <v>80946.98785079876</v>
+        <v>15257.77802448065</v>
       </c>
       <c r="E18">
-        <v>5622.894456637785</v>
+        <v>1460.741557968498</v>
       </c>
       <c r="F18">
-        <v>1036.391067220671</v>
+        <v>3905.218734266925</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>104</v>
+        <v>152.4</v>
       </c>
       <c r="B19">
-        <v>57279.33706189658</v>
+        <v>3831.873615607677</v>
       </c>
       <c r="C19">
-        <v>12031.63550870239</v>
+        <v>5408.415314812286</v>
       </c>
       <c r="D19">
-        <v>85131.30744289271</v>
+        <v>13470.73015261068</v>
       </c>
       <c r="E19">
-        <v>5978.349731812857</v>
+        <v>1526.264750210824</v>
       </c>
       <c r="F19">
-        <v>1225.859452456762</v>
+        <v>5928.150645741072</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>106.6</v>
+        <v>154.7</v>
       </c>
       <c r="B20">
-        <v>51437.02879812291</v>
+        <v>7761.528819391286</v>
       </c>
       <c r="C20">
-        <v>15590.641260424</v>
+        <v>8164.669970744508</v>
       </c>
       <c r="D20">
-        <v>87375.32089482497</v>
+        <v>15681.99828656482</v>
       </c>
       <c r="E20">
-        <v>5052.342651575987</v>
+        <v>2765.220814827806</v>
       </c>
       <c r="F20">
-        <v>1016.562844462779</v>
+        <v>8481.670371373137</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>109.6</v>
+        <v>157</v>
       </c>
       <c r="B21">
-        <v>49999.75003223023</v>
+        <v>10211.18402317489</v>
       </c>
       <c r="C21">
-        <v>15314.10943548741</v>
+        <v>8810.92462667673</v>
       </c>
       <c r="D21">
-        <v>88442.25949320837</v>
+        <v>15283.26642051895</v>
       </c>
       <c r="E21">
-        <v>4837.719097456523</v>
+        <v>3534.176879444785</v>
       </c>
       <c r="F21">
-        <v>888.9129121620304</v>
+        <v>10935.1900970052</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>112.3</v>
+        <v>159.6</v>
       </c>
       <c r="B22">
-        <v>59361.19914292687</v>
+        <v>15537.3159926694</v>
       </c>
       <c r="C22">
-        <v>14429.23079304448</v>
+        <v>11332.77771599141</v>
       </c>
       <c r="D22">
-        <v>84659.50423175341</v>
+        <v>15359.48257194538</v>
       </c>
       <c r="E22">
-        <v>4294.557898749003</v>
+        <v>4253.431561185719</v>
       </c>
       <c r="F22">
-        <v>1220.027973091355</v>
+        <v>12290.47326511101</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>115</v>
+        <v>161.9</v>
       </c>
       <c r="B23">
-        <v>47302.64825362351</v>
+        <v>22216.97119645301</v>
       </c>
       <c r="C23">
-        <v>12694.35215060153</v>
+        <v>11489.03237192364</v>
       </c>
       <c r="D23">
-        <v>80556.74897029847</v>
+        <v>14300.75070589952</v>
       </c>
       <c r="E23">
-        <v>3831.396700041481</v>
+        <v>3572.387625802705</v>
       </c>
       <c r="F23">
-        <v>1461.143034020681</v>
+        <v>9203.992990743074</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>117.7</v>
+        <v>164.1</v>
       </c>
       <c r="B24">
-        <v>49504.09736432015</v>
+        <v>17224.46747833295</v>
       </c>
       <c r="C24">
-        <v>11159.4735081586</v>
+        <v>11326.75421672837</v>
       </c>
       <c r="D24">
-        <v>76063.99370884354</v>
+        <v>11363.70283402955</v>
       </c>
       <c r="E24">
-        <v>2758.235501333961</v>
+        <v>2837.910818045035</v>
       </c>
       <c r="F24">
-        <v>1452.258094950006</v>
+        <v>5086.92490221722</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>120.5</v>
+        <v>166.7</v>
       </c>
       <c r="B25">
-        <v>44439.30384948698</v>
+        <v>14170.59944782745</v>
       </c>
       <c r="C25">
-        <v>10780.71047155112</v>
+        <v>10688.60730604306</v>
       </c>
       <c r="D25">
-        <v>70574.46973400138</v>
+        <v>9429.918985455966</v>
       </c>
       <c r="E25">
-        <v>3617.920184155794</v>
+        <v>2397.165499785969</v>
       </c>
       <c r="F25">
-        <v>1123.78482480264</v>
+        <v>4092.20807032303</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B26">
-        <v>30343.23821124313</v>
+        <v>9420.25465161106</v>
       </c>
       <c r="C26">
-        <v>11513.6006174373</v>
+        <v>9174.861961975281</v>
       </c>
       <c r="D26">
-        <v>68125.25189932088</v>
+        <v>7931.187119410104</v>
       </c>
       <c r="E26">
-        <v>2719.067222389573</v>
+        <v>1966.121564402948</v>
       </c>
       <c r="F26">
-        <v>864.0765478853481</v>
+        <v>3585.727795955094</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>125.3</v>
+        <v>171.3</v>
       </c>
       <c r="B27">
-        <v>30499.65782405868</v>
+        <v>4469.909855394675</v>
       </c>
       <c r="C27">
-        <v>10324.25955165257</v>
+        <v>10301.1166179075</v>
       </c>
       <c r="D27">
-        <v>61449.5714914148</v>
+        <v>7452.455253364242</v>
       </c>
       <c r="E27">
-        <v>3594.522497564649</v>
+        <v>2065.07762901993</v>
       </c>
       <c r="F27">
-        <v>523.5449331214406</v>
+        <v>3329.247521587156</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>127.6</v>
+        <v>173.5</v>
       </c>
       <c r="B28">
-        <v>25466.07743687434</v>
+        <v>10527.40613727473</v>
       </c>
       <c r="C28">
-        <v>10744.91848586785</v>
+        <v>10158.83846271224</v>
       </c>
       <c r="D28">
-        <v>59533.89108350874</v>
+        <v>5315.407381494289</v>
       </c>
       <c r="E28">
-        <v>3199.977772739725</v>
+        <v>1920.60082126226</v>
       </c>
       <c r="F28">
-        <v>923.0133183575332</v>
+        <v>2892.179433061305</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>129.8</v>
+        <v>175.8</v>
       </c>
       <c r="B29">
-        <v>29408.73967521971</v>
+        <v>2527.061341058339</v>
       </c>
       <c r="C29">
-        <v>8419.461814247674</v>
+        <v>10345.09311864446</v>
       </c>
       <c r="D29">
-        <v>55224.97938898989</v>
+        <v>4556.675515448427</v>
       </c>
       <c r="E29">
-        <v>3522.587166385446</v>
+        <v>2489.556885879242</v>
       </c>
       <c r="F29">
-        <v>742.0700346703168</v>
+        <v>3185.699158693367</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>132.3</v>
+        <v>178</v>
       </c>
       <c r="B30">
-        <v>26132.67403697586</v>
+        <v>2754.557622938279</v>
       </c>
       <c r="C30">
-        <v>9842.351960133852</v>
+        <v>11022.81496344919</v>
       </c>
       <c r="D30">
-        <v>53995.76155430939</v>
+        <v>5839.627643578468</v>
       </c>
       <c r="E30">
-        <v>3953.734204619225</v>
+        <v>2145.080078121572</v>
       </c>
       <c r="F30">
-        <v>492.3617577530254</v>
+        <v>2548.631070167516</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>134.4</v>
+        <v>180.4</v>
       </c>
       <c r="B31">
-        <v>27751.57890085092</v>
+        <v>5076.371748625555</v>
       </c>
       <c r="C31">
-        <v>8560.779682678243</v>
+        <v>12147.6024305089</v>
       </c>
       <c r="D31">
-        <v>50573.61857317776</v>
+        <v>4689.211783356695</v>
       </c>
       <c r="E31">
-        <v>2813.497716735601</v>
+        <v>2837.469015113204</v>
       </c>
       <c r="F31">
-        <v>991.0068051425019</v>
+        <v>2662.738609957492</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>136.5</v>
+        <v>182.9</v>
       </c>
       <c r="B32">
-        <v>16250.4837647261</v>
+        <v>6200.344796216392</v>
       </c>
       <c r="C32">
-        <v>9679.20740522262</v>
+        <v>13700.92270869611</v>
       </c>
       <c r="D32">
-        <v>48071.47559204614</v>
+        <v>4357.111928959028</v>
       </c>
       <c r="E32">
-        <v>2673.261228851974</v>
+        <v>2013.290824479488</v>
       </c>
       <c r="F32">
-        <v>839.6518525319766</v>
+        <v>2537.433963905389</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>138.7</v>
+        <v>185.2</v>
       </c>
       <c r="B33">
-        <v>16393.14600307147</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>10603.75073360246</v>
+        <v>13377.17736462833</v>
       </c>
       <c r="D33">
-        <v>46472.56389752729</v>
+        <v>2258.380062913166</v>
       </c>
       <c r="E33">
-        <v>3465.870622497699</v>
+        <v>2132.246889096471</v>
       </c>
       <c r="F33">
-        <v>1528.70856884476</v>
+        <v>2780.95368953745</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>140.9</v>
+        <v>187.4</v>
       </c>
       <c r="B34">
-        <v>21785.80824141683</v>
+        <v>3987.496281879939</v>
       </c>
       <c r="C34">
-        <v>10528.29406198228</v>
+        <v>15054.89920943307</v>
       </c>
       <c r="D34">
-        <v>45603.65220300846</v>
+        <v>3531.332191043199</v>
       </c>
       <c r="E34">
-        <v>3628.480016143424</v>
+        <v>1677.7700813388</v>
       </c>
       <c r="F34">
-        <v>1237.765285157544</v>
+        <v>2563.885601011599</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>143.1</v>
+        <v>189.7</v>
       </c>
       <c r="B35">
-        <v>17918.47047976231</v>
+        <v>8977.151485663548</v>
       </c>
       <c r="C35">
-        <v>11482.83739036212</v>
+        <v>16731.15386536529</v>
       </c>
       <c r="D35">
-        <v>45384.74050848961</v>
+        <v>4562.600324997351</v>
       </c>
       <c r="E35">
-        <v>3221.089409789147</v>
+        <v>2526.726145955779</v>
       </c>
       <c r="F35">
-        <v>1276.822001470327</v>
+        <v>2767.405326643661</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>145.7</v>
+        <v>192</v>
       </c>
       <c r="B36">
-        <v>18256.16221598865</v>
+        <v>18346.80668944716</v>
       </c>
       <c r="C36">
-        <v>10861.84314208374</v>
+        <v>16567.40852129751</v>
       </c>
       <c r="D36">
-        <v>43588.75396042188</v>
+        <v>2683.868458951489</v>
       </c>
       <c r="E36">
-        <v>3785.082329552276</v>
+        <v>2085.682210572762</v>
       </c>
       <c r="F36">
-        <v>2087.525393476345</v>
+        <v>2860.925052275725</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>147.9</v>
+        <v>194.6</v>
       </c>
       <c r="B37">
-        <v>17168.82445433401</v>
+        <v>19422.93865894178</v>
       </c>
       <c r="C37">
-        <v>11606.38647046357</v>
+        <v>17779.2616106122</v>
       </c>
       <c r="D37">
-        <v>42039.84226590302</v>
+        <v>3790.084610377904</v>
       </c>
       <c r="E37">
-        <v>4287.691723198001</v>
+        <v>2104.936892313696</v>
       </c>
       <c r="F37">
-        <v>3046.582109789129</v>
+        <v>2546.208220381534</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>150.2</v>
+        <v>196.9</v>
       </c>
       <c r="B38">
-        <v>14525.24406714968</v>
+        <v>26132.59386272539</v>
       </c>
       <c r="C38">
-        <v>13027.04540467885</v>
+        <v>18715.51626654441</v>
       </c>
       <c r="D38">
-        <v>42384.16185799697</v>
+        <v>3591.352744332034</v>
       </c>
       <c r="E38">
-        <v>3933.146998373077</v>
+        <v>2063.892956930678</v>
       </c>
       <c r="F38">
-        <v>4366.050495025222</v>
+        <v>3019.727946013598</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>152.4</v>
+        <v>199.2</v>
       </c>
       <c r="B39">
-        <v>10347.90630549504</v>
+        <v>20962.249066509</v>
       </c>
       <c r="C39">
-        <v>13281.58873305868</v>
+        <v>16601.77092247665</v>
       </c>
       <c r="D39">
-        <v>40265.25016347811</v>
+        <v>2692.620878286172</v>
       </c>
       <c r="E39">
-        <v>3985.756392018799</v>
+        <v>2432.849021547657</v>
       </c>
       <c r="F39">
-        <v>6385.107211338004</v>
+        <v>2913.247671645662</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>154.7</v>
+        <v>201.4</v>
       </c>
       <c r="B40">
-        <v>14084.32591831059</v>
+        <v>29639.74534838894</v>
       </c>
       <c r="C40">
-        <v>15982.24766727396</v>
+        <v>17069.49276728137</v>
       </c>
       <c r="D40">
-        <v>42129.56975557206</v>
+        <v>3775.57300641622</v>
       </c>
       <c r="E40">
-        <v>5211.211667193878</v>
+        <v>2308.372213789986</v>
       </c>
       <c r="F40">
-        <v>8934.575596574095</v>
+        <v>2776.179583119808</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>157</v>
+        <v>203.8</v>
       </c>
       <c r="B41">
-        <v>16340.74553112626</v>
+        <v>38451.55947407622</v>
       </c>
       <c r="C41">
-        <v>16572.90660148924</v>
+        <v>17704.28023434109</v>
       </c>
       <c r="D41">
-        <v>41383.88934766599</v>
+        <v>4145.157146194455</v>
       </c>
       <c r="E41">
-        <v>5966.666942368954</v>
+        <v>2090.761150781622</v>
       </c>
       <c r="F41">
-        <v>11384.04398181019</v>
+        <v>2840.287122909787</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>159.6</v>
+        <v>206</v>
       </c>
       <c r="B42">
-        <v>21448.43726735259</v>
+        <v>40509.05575595616</v>
       </c>
       <c r="C42">
-        <v>19031.91235321085</v>
+        <v>17722.00207914583</v>
       </c>
       <c r="D42">
-        <v>41067.90279959828</v>
+        <v>2478.109274324495</v>
       </c>
       <c r="E42">
-        <v>6670.659862132079</v>
+        <v>2266.284343023951</v>
       </c>
       <c r="F42">
-        <v>12734.74737381621</v>
+        <v>3073.219034383934</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>161.9</v>
+        <v>208.6</v>
       </c>
       <c r="B43">
-        <v>27934.85688016826</v>
+        <v>47155.18772545066</v>
       </c>
       <c r="C43">
-        <v>19132.57128742614</v>
+        <v>18143.8551684605</v>
       </c>
       <c r="D43">
-        <v>39662.22239169219</v>
+        <v>1924.325425750911</v>
       </c>
       <c r="E43">
-        <v>5976.115137307159</v>
+        <v>1715.539024764886</v>
       </c>
       <c r="F43">
-        <v>9644.215759052297</v>
+        <v>3488.502202489745</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>164.1</v>
+        <v>210.9</v>
       </c>
       <c r="B44">
-        <v>22757.51911851363</v>
+        <v>70184.84292923426</v>
       </c>
       <c r="C44">
-        <v>18917.11461580597</v>
+        <v>18170.10982439274</v>
       </c>
       <c r="D44">
-        <v>36393.31069717336</v>
+        <v>1885.593559705041</v>
       </c>
       <c r="E44">
-        <v>5228.724530952881</v>
+        <v>2084.495089381864</v>
       </c>
       <c r="F44">
-        <v>5523.272475365081</v>
+        <v>3342.021928121807</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>166.7</v>
+        <v>213.2</v>
       </c>
       <c r="B45">
-        <v>19485.21085473997</v>
+        <v>84184.49813301789</v>
       </c>
       <c r="C45">
-        <v>18216.1203675276</v>
+        <v>19376.36448032495</v>
       </c>
       <c r="D45">
-        <v>34067.32414910563</v>
+        <v>1766.861693659193</v>
       </c>
       <c r="E45">
-        <v>4772.71745071601</v>
+        <v>1423.451153998851</v>
       </c>
       <c r="F45">
-        <v>4523.975867371099</v>
+        <v>2975.541653753871</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>169</v>
+        <v>215.4</v>
       </c>
       <c r="B46">
-        <v>14541.63046755563</v>
+        <v>100951.9944148978</v>
       </c>
       <c r="C46">
-        <v>16646.77930174287</v>
+        <v>20044.0863251297</v>
       </c>
       <c r="D46">
-        <v>32221.64374119957</v>
+        <v>759.8138217892265</v>
       </c>
       <c r="E46">
-        <v>4328.17272589109</v>
+        <v>2258.97434624118</v>
       </c>
       <c r="F46">
-        <v>4013.444252607192</v>
+        <v>3188.473565228018</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>171.3</v>
+        <v>217.7</v>
       </c>
       <c r="B47">
-        <v>9398.050080371298</v>
+        <v>123221.6496186814</v>
       </c>
       <c r="C47">
-        <v>17717.43823595814</v>
+        <v>18530.34098106191</v>
       </c>
       <c r="D47">
-        <v>31395.9633332935</v>
+        <v>2381.081955743379</v>
       </c>
       <c r="E47">
-        <v>4413.628001066161</v>
+        <v>2657.930410858159</v>
       </c>
       <c r="F47">
-        <v>3752.912637843282</v>
+        <v>3431.993290860081</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>173.5</v>
+        <v>220.3</v>
       </c>
       <c r="B48">
-        <v>15270.71231871666</v>
+        <v>149637.781588176</v>
       </c>
       <c r="C48">
-        <v>17521.98156433798</v>
+        <v>20952.1940703766</v>
       </c>
       <c r="D48">
-        <v>28927.05163877466</v>
+        <v>2737.29810716978</v>
       </c>
       <c r="E48">
-        <v>4256.23739471189</v>
+        <v>1837.185092599093</v>
       </c>
       <c r="F48">
-        <v>3311.969354156066</v>
+        <v>3627.276458965893</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>175.8</v>
+        <v>222.6</v>
       </c>
       <c r="B49">
-        <v>7077.131931532329</v>
+        <v>182137.4367919597</v>
       </c>
       <c r="C49">
-        <v>17652.64049855325</v>
+        <v>20878.44872630882</v>
       </c>
       <c r="D49">
-        <v>27821.37123086859</v>
+        <v>2868.566241123932</v>
       </c>
       <c r="E49">
-        <v>4811.692669886962</v>
+        <v>2446.141157216075</v>
       </c>
       <c r="F49">
-        <v>3601.437739392159</v>
+        <v>2970.796184597954</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>178</v>
+        <v>224.8</v>
       </c>
       <c r="B50">
-        <v>7119.79416987769</v>
+        <v>217954.9330738396</v>
       </c>
       <c r="C50">
-        <v>18277.1838269331</v>
+        <v>19376.17057111355</v>
       </c>
       <c r="D50">
-        <v>28772.45953634974</v>
+        <v>3741.518369253972</v>
       </c>
       <c r="E50">
-        <v>4454.302063532688</v>
+        <v>2051.664349458405</v>
       </c>
       <c r="F50">
-        <v>2960.494455704943</v>
+        <v>3083.728096072101</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>180.4</v>
+        <v>227.1</v>
       </c>
       <c r="B51">
-        <v>9239.971157163543</v>
+        <v>243994.5882776232</v>
       </c>
       <c r="C51">
-        <v>19343.95836698381</v>
+        <v>22442.42522704578</v>
       </c>
       <c r="D51">
-        <v>27260.01041505646</v>
+        <v>3212.786503208117</v>
       </c>
       <c r="E51">
-        <v>5132.603220237114</v>
+        <v>1740.620414075388</v>
       </c>
       <c r="F51">
-        <v>3070.374509864344</v>
+        <v>3557.247821704165</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>182.9</v>
+        <v>229.4</v>
       </c>
       <c r="B52">
-        <v>10153.9055189197</v>
+        <v>278414.2434814068</v>
       </c>
       <c r="C52">
-        <v>20836.84851286999</v>
+        <v>19718.679882978</v>
       </c>
       <c r="D52">
-        <v>26550.79258037595</v>
+        <v>3704.054637162248</v>
       </c>
       <c r="E52">
-        <v>4293.750258470893</v>
+        <v>2699.576478692366</v>
       </c>
       <c r="F52">
-        <v>2940.666232947052</v>
+        <v>3010.767547336229</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>185.2</v>
+        <v>232</v>
       </c>
       <c r="B53">
-        <v>3760.325131735246</v>
+        <v>319640.3754509013</v>
       </c>
       <c r="C53">
-        <v>20457.50744708528</v>
+        <v>22210.53297229269</v>
       </c>
       <c r="D53">
-        <v>24105.11217246989</v>
+        <v>2340.270788588663</v>
       </c>
       <c r="E53">
-        <v>4399.205533645973</v>
+        <v>2798.8311604333</v>
       </c>
       <c r="F53">
-        <v>3180.134618183143</v>
+        <v>3466.050715442038</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>187.4</v>
+        <v>234</v>
       </c>
       <c r="B54">
-        <v>7562.987370080727</v>
+        <v>353073.5538889741</v>
       </c>
       <c r="C54">
-        <v>22082.0507754651</v>
+        <v>22461.18919484244</v>
       </c>
       <c r="D54">
-        <v>25046.20047795105</v>
+        <v>646.5909050705231</v>
       </c>
       <c r="E54">
-        <v>3931.814927291694</v>
+        <v>2627.488607926331</v>
       </c>
       <c r="F54">
-        <v>2959.191334495928</v>
+        <v>2807.806998600355</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>189.7</v>
+        <v>236.6</v>
       </c>
       <c r="B55">
-        <v>12359.40698289628</v>
+        <v>389139.6858584686</v>
       </c>
       <c r="C55">
-        <v>23702.70970968039</v>
+        <v>23493.04228415714</v>
       </c>
       <c r="D55">
-        <v>25730.52007004499</v>
+        <v>3382.807056496938</v>
       </c>
       <c r="E55">
-        <v>4767.27020246677</v>
+        <v>2396.743289667265</v>
       </c>
       <c r="F55">
-        <v>3158.659719732019</v>
+        <v>2653.090166706166</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>192</v>
+        <v>238.8</v>
       </c>
       <c r="B56">
-        <v>21535.82659571194</v>
+        <v>436497.1821403485</v>
       </c>
       <c r="C56">
-        <v>23483.36864389565</v>
+        <v>21380.76412896187</v>
       </c>
       <c r="D56">
-        <v>23504.83966213892</v>
+        <v>845.7591846269934</v>
       </c>
       <c r="E56">
-        <v>4312.725477641846</v>
+        <v>1822.266481909594</v>
       </c>
       <c r="F56">
-        <v>3248.128104968112</v>
+        <v>2726.022078180313</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>194.6</v>
+        <v>241.1</v>
       </c>
       <c r="B57">
-        <v>22393.51833193828</v>
+        <v>471986.8373441321</v>
       </c>
       <c r="C57">
-        <v>24632.37439561728</v>
+        <v>22787.0187848941</v>
       </c>
       <c r="D57">
-        <v>24218.8531140712</v>
+        <v>1857.027318581124</v>
       </c>
       <c r="E57">
-        <v>4316.718397404975</v>
+        <v>2161.222546526574</v>
       </c>
       <c r="F57">
-        <v>2928.83149697413</v>
+        <v>2319.541803812376</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>196.9</v>
+        <v>243.7</v>
       </c>
       <c r="B58">
-        <v>28909.93794475395</v>
+        <v>506602.9693136268</v>
       </c>
       <c r="C58">
-        <v>25513.03332983255</v>
+        <v>22548.87187420879</v>
       </c>
       <c r="D58">
-        <v>23673.17270616513</v>
+        <v>2573.243470007539</v>
       </c>
       <c r="E58">
-        <v>4262.17367258005</v>
+        <v>2960.477228267515</v>
       </c>
       <c r="F58">
-        <v>3398.299882210222</v>
+        <v>2584.824971918186</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>199.2</v>
+        <v>246</v>
       </c>
       <c r="B59">
-        <v>23546.35755756949</v>
+        <v>548392.6245174104</v>
       </c>
       <c r="C59">
-        <v>23343.69226404783</v>
+        <v>21695.12653014099</v>
       </c>
       <c r="D59">
-        <v>22427.49229825907</v>
+        <v>1194.51160396167</v>
       </c>
       <c r="E59">
-        <v>4617.628947755126</v>
+        <v>2439.433292884494</v>
       </c>
       <c r="F59">
-        <v>3287.768267446313</v>
+        <v>2078.344697550249</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>201.4</v>
+        <v>248.3</v>
       </c>
       <c r="B60">
-        <v>32039.01979591497</v>
+        <v>598282.2797211937</v>
       </c>
       <c r="C60">
-        <v>23758.23559242767</v>
+        <v>22181.38118607323</v>
       </c>
       <c r="D60">
-        <v>23178.58060374021</v>
+        <v>1785.779737915807</v>
       </c>
       <c r="E60">
-        <v>4480.238341400848</v>
+        <v>2368.389357501473</v>
       </c>
       <c r="F60">
-        <v>3146.824983759098</v>
+        <v>1781.864423182311</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>203.8</v>
+        <v>250.6</v>
       </c>
       <c r="B61">
-        <v>40649.19678320082</v>
+        <v>628361.9349249775</v>
       </c>
       <c r="C61">
-        <v>24335.01013247839</v>
+        <v>22467.63584200545</v>
       </c>
       <c r="D61">
-        <v>23186.13148244693</v>
+        <v>1457.04787186996</v>
       </c>
       <c r="E61">
-        <v>4248.539498105277</v>
+        <v>2747.345422118452</v>
       </c>
       <c r="F61">
-        <v>3206.705037918498</v>
+        <v>1775.384148814375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>206</v>
+        <v>252.8</v>
       </c>
       <c r="B62">
-        <v>42521.85902154619</v>
+        <v>671069.4312068573</v>
       </c>
       <c r="C62">
-        <v>24299.55346085821</v>
+        <v>21955.35768681019</v>
       </c>
       <c r="D62">
-        <v>21187.21978792809</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>4411.148891751002</v>
+        <v>1862.868614360781</v>
       </c>
       <c r="F62">
-        <v>3435.761754231281</v>
+        <v>1618.316060288522</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>208.6</v>
+        <v>255.1</v>
       </c>
       <c r="B63">
-        <v>48949.55075777253</v>
+        <v>720079.086410641</v>
       </c>
       <c r="C63">
-        <v>24658.55921257985</v>
+        <v>19501.61234274241</v>
       </c>
       <c r="D63">
-        <v>20241.23323986036</v>
+        <v>1291.26813395413</v>
       </c>
       <c r="E63">
-        <v>3845.141811514132</v>
+        <v>1691.824678977767</v>
       </c>
       <c r="F63">
-        <v>3846.465146237299</v>
+        <v>1311.835785920586</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>210.9</v>
+        <v>257.7</v>
       </c>
       <c r="B64">
-        <v>71785.9703705882</v>
+        <v>748055.2183801355</v>
       </c>
       <c r="C64">
-        <v>24629.21814679512</v>
+        <v>20223.46543205709</v>
       </c>
       <c r="D64">
-        <v>19855.55283195429</v>
+        <v>2397.48428538056</v>
       </c>
       <c r="E64">
-        <v>4200.597086689208</v>
+        <v>1441.079360718701</v>
       </c>
       <c r="F64">
-        <v>3695.933531473392</v>
+        <v>1467.118954026395</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>213.2</v>
+        <v>260</v>
       </c>
       <c r="B65">
-        <v>85592.38998340374</v>
+        <v>782764.8735839193</v>
       </c>
       <c r="C65">
-        <v>25779.87708101041</v>
+        <v>20279.72008798932</v>
       </c>
       <c r="D65">
-        <v>19389.87242404823</v>
+        <v>1608.752419334691</v>
       </c>
       <c r="E65">
-        <v>3526.052361864284</v>
+        <v>2480.03542533568</v>
       </c>
       <c r="F65">
-        <v>3325.401916709482</v>
+        <v>1190.638679658459</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>215.4</v>
+        <v>262.3</v>
       </c>
       <c r="B66">
-        <v>102175.0522217492</v>
+        <v>795634.5287877028</v>
       </c>
       <c r="C66">
-        <v>26394.42040939023</v>
+        <v>18125.97474392153</v>
       </c>
       <c r="D66">
-        <v>18050.96072952939</v>
+        <v>650.0205532888285</v>
       </c>
       <c r="E66">
-        <v>4348.661755510009</v>
+        <v>2078.991489952663</v>
       </c>
       <c r="F66">
-        <v>3534.458633022266</v>
+        <v>944.1584052905225</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>217.7</v>
+        <v>264.6</v>
       </c>
       <c r="B67">
-        <v>124251.4718345648</v>
+        <v>803504.1839914864</v>
       </c>
       <c r="C67">
-        <v>24825.07934360551</v>
+        <v>18352.22939985377</v>
       </c>
       <c r="D67">
-        <v>19325.28032162332</v>
+        <v>551.2886872429663</v>
       </c>
       <c r="E67">
-        <v>4734.117030685085</v>
+        <v>1337.947554569645</v>
       </c>
       <c r="F67">
-        <v>3773.927018258359</v>
+        <v>837.6781309225844</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>220.3</v>
+        <v>266.9</v>
       </c>
       <c r="B68">
-        <v>150449.1635707912</v>
+        <v>790173.83919527</v>
       </c>
       <c r="C68">
-        <v>27184.08509532714</v>
+        <v>15408.48405578599</v>
       </c>
       <c r="D68">
-        <v>19289.2937735556</v>
+        <v>1692.556821197097</v>
       </c>
       <c r="E68">
-        <v>3898.10995044821</v>
+        <v>1276.903619186624</v>
       </c>
       <c r="F68">
-        <v>3964.630410264376</v>
+        <v>771.1978565546483</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>222.6</v>
+        <v>269.5</v>
       </c>
       <c r="B69">
-        <v>182755.5831836068</v>
+        <v>778709.9711647645</v>
       </c>
       <c r="C69">
-        <v>27054.74402954241</v>
+        <v>15920.33714510067</v>
       </c>
       <c r="D69">
-        <v>19073.61336564953</v>
+        <v>1028.772972623512</v>
       </c>
       <c r="E69">
-        <v>4493.56522562329</v>
+        <v>2076.158300927558</v>
       </c>
       <c r="F69">
-        <v>3304.098795500468</v>
+        <v>786.4810246604593</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>224.8</v>
+        <v>271.7</v>
       </c>
       <c r="B70">
-        <v>218388.2454219521</v>
+        <v>724017.4674466446</v>
       </c>
       <c r="C70">
-        <v>25499.28735792225</v>
+        <v>17018.05898990541</v>
       </c>
       <c r="D70">
-        <v>19614.70167113068</v>
+        <v>861.7251007535669</v>
       </c>
       <c r="E70">
-        <v>4086.174619269012</v>
+        <v>2151.681493169887</v>
       </c>
       <c r="F70">
-        <v>3413.155511813252</v>
+        <v>779.4129361346063</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>227.1</v>
+        <v>274</v>
       </c>
       <c r="B71">
-        <v>244234.6650347678</v>
+        <v>647347.122650428</v>
       </c>
       <c r="C71">
-        <v>28509.94629213753</v>
+        <v>15404.31364583763</v>
       </c>
       <c r="D71">
-        <v>18739.02126322463</v>
+        <v>2162.993234707697</v>
       </c>
       <c r="E71">
-        <v>3761.629894444091</v>
+        <v>1180.637557786873</v>
       </c>
       <c r="F71">
-        <v>3882.623897049343</v>
+        <v>942.9326617666682</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>229.4</v>
+        <v>276.3</v>
       </c>
       <c r="B72">
-        <v>278461.0846475834</v>
+        <v>595286.7778542117</v>
       </c>
       <c r="C72">
-        <v>25730.6052263528</v>
+        <v>14910.56830176985</v>
       </c>
       <c r="D72">
-        <v>18883.34085531855</v>
+        <v>2204.261368661835</v>
       </c>
       <c r="E72">
-        <v>4707.085169619163</v>
+        <v>1989.593622403852</v>
       </c>
       <c r="F72">
-        <v>3332.092282285435</v>
+        <v>926.4523873987318</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>232</v>
+        <v>278.9</v>
       </c>
       <c r="B73">
-        <v>319468.7763838098</v>
+        <v>525842.9098237064</v>
       </c>
       <c r="C73">
-        <v>28159.61097807442</v>
+        <v>16792.42139108454</v>
       </c>
       <c r="D73">
-        <v>17127.35430725083</v>
+        <v>3340.477520088258</v>
       </c>
       <c r="E73">
-        <v>4791.078089382292</v>
+        <v>1858.848304144787</v>
       </c>
       <c r="F73">
-        <v>3782.795674291453</v>
+        <v>831.7355555045413</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>234</v>
+        <v>281.1</v>
       </c>
       <c r="B74">
-        <v>352733.9238732146</v>
+        <v>482520.4061055863</v>
       </c>
       <c r="C74">
-        <v>28361.92309478335</v>
+        <v>14220.14323588928</v>
       </c>
       <c r="D74">
-        <v>15131.98003950643</v>
+        <v>2803.429648218298</v>
       </c>
       <c r="E74">
-        <v>4607.995719969314</v>
+        <v>1514.371496387116</v>
       </c>
       <c r="F74">
-        <v>3121.02905275762</v>
+        <v>724.6674669786896</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>236.6</v>
+        <v>283.5</v>
       </c>
       <c r="B75">
-        <v>388581.615609441</v>
+        <v>434632.2202312736</v>
       </c>
       <c r="C75">
-        <v>29330.92884650498</v>
+        <v>16474.93070294899</v>
       </c>
       <c r="D75">
-        <v>17475.99349143871</v>
+        <v>2603.013787996533</v>
       </c>
       <c r="E75">
-        <v>4361.988639732444</v>
+        <v>1896.760433378751</v>
       </c>
       <c r="F75">
-        <v>2961.732444763638</v>
+        <v>318.7750067686688</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>238.8</v>
+        <v>285.7</v>
       </c>
       <c r="B76">
-        <v>435754.2778477864</v>
+        <v>388319.7165131535</v>
       </c>
       <c r="C76">
-        <v>27165.47217488481</v>
+        <v>15652.65254775372</v>
       </c>
       <c r="D76">
-        <v>14607.08179691985</v>
+        <v>1385.965916126574</v>
       </c>
       <c r="E76">
-        <v>3774.598033378169</v>
+        <v>602.2836256210808</v>
       </c>
       <c r="F76">
-        <v>3030.789161076421</v>
+        <v>581.7069182428156</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>241.1</v>
+        <v>288</v>
       </c>
       <c r="B77">
-        <v>471050.697460602</v>
+        <v>364349.3717169371</v>
       </c>
       <c r="C77">
-        <v>28516.13110910009</v>
+        <v>15978.90720368594</v>
       </c>
       <c r="D77">
-        <v>15271.40138901379</v>
+        <v>2977.234050080704</v>
       </c>
       <c r="E77">
-        <v>4100.053308553244</v>
+        <v>1481.23969023806</v>
       </c>
       <c r="F77">
-        <v>2620.257546312512</v>
+        <v>585.2266438748793</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>243.7</v>
+        <v>290.3</v>
       </c>
       <c r="B78">
-        <v>505448.3891968284</v>
+        <v>335659.0269207208</v>
       </c>
       <c r="C78">
-        <v>28215.13686082171</v>
+        <v>17835.16185961817</v>
       </c>
       <c r="D78">
-        <v>15595.41484094607</v>
+        <v>2348.502184034842</v>
       </c>
       <c r="E78">
-        <v>4884.046228316374</v>
+        <v>1870.195754855042</v>
       </c>
       <c r="F78">
-        <v>2880.96093831853</v>
+        <v>658.7463695069412</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>246</v>
+        <v>292.6</v>
       </c>
       <c r="B79">
-        <v>547044.8088096442</v>
+        <v>313008.6821245044</v>
       </c>
       <c r="C79">
-        <v>27305.79579503699</v>
+        <v>16971.41651555038</v>
       </c>
       <c r="D79">
-        <v>13869.73443304</v>
+        <v>3779.77031798898</v>
       </c>
       <c r="E79">
-        <v>4349.501503491453</v>
+        <v>1339.151819472021</v>
       </c>
       <c r="F79">
-        <v>2370.429323554622</v>
+        <v>412.2660951390049</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>248.3</v>
+        <v>295.2</v>
       </c>
       <c r="B80">
-        <v>596741.2284224596</v>
+        <v>297124.8140939988</v>
       </c>
       <c r="C80">
-        <v>27736.45472925227</v>
+        <v>27563.26960486507</v>
       </c>
       <c r="D80">
-        <v>14114.05402513393</v>
+        <v>2835.986469415409</v>
       </c>
       <c r="E80">
-        <v>4264.956778666525</v>
+        <v>378.406501212959</v>
       </c>
       <c r="F80">
-        <v>2069.897708790715</v>
+        <v>627.5492632448163</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>250.6</v>
+        <v>297.5</v>
       </c>
       <c r="B81">
-        <v>626627.6480352753</v>
+        <v>270544.4692977824</v>
       </c>
       <c r="C81">
-        <v>27967.11366346753</v>
+        <v>22719.5242607973</v>
       </c>
       <c r="D81">
-        <v>13438.37361722787</v>
+        <v>3817.25460336954</v>
       </c>
       <c r="E81">
-        <v>4630.412053841605</v>
+        <v>1457.362565829937</v>
       </c>
       <c r="F81">
-        <v>2059.366094026806</v>
+        <v>681.0689888768782</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>252.8</v>
+        <v>300.1</v>
       </c>
       <c r="B82">
-        <v>669150.3102736208</v>
+        <v>246300.6012672769</v>
       </c>
       <c r="C82">
-        <v>27401.65699184737</v>
+        <v>36191.37735011199</v>
       </c>
       <c r="D82">
-        <v>11649.46192270903</v>
+        <v>1903.470754795955</v>
       </c>
       <c r="E82">
-        <v>3733.021447487326</v>
+        <v>5286.617247570872</v>
       </c>
       <c r="F82">
-        <v>1898.422810339591</v>
+        <v>1396.352156982689</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>255.1</v>
+        <v>302.7</v>
       </c>
       <c r="B83">
-        <v>717966.7298864364</v>
+        <v>231096.7332367715</v>
       </c>
       <c r="C83">
-        <v>24892.31592606266</v>
+        <v>27313.23043942669</v>
       </c>
       <c r="D83">
-        <v>12593.78151480297</v>
+        <v>1719.68690622237</v>
       </c>
       <c r="E83">
-        <v>3548.476722662406</v>
+        <v>845.8719293118097</v>
       </c>
       <c r="F83">
-        <v>1587.891195575682</v>
+        <v>411.6353250884986</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>257.7</v>
+        <v>305</v>
       </c>
       <c r="B84">
-        <v>745724.4216226626</v>
+        <v>224556.3884405551</v>
       </c>
       <c r="C84">
-        <v>25551.32167778428</v>
+        <v>24599.4850953589</v>
       </c>
       <c r="D84">
-        <v>13307.79496673524</v>
+        <v>2230.955040176501</v>
       </c>
       <c r="E84">
-        <v>3282.469642425535</v>
+        <v>2124.827993928792</v>
       </c>
       <c r="F84">
-        <v>1738.594587581699</v>
+        <v>1365.155050720562</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>260</v>
+        <v>307.2</v>
       </c>
       <c r="B85">
-        <v>780240.8412354783</v>
+        <v>206993.8847224351</v>
       </c>
       <c r="C85">
-        <v>25551.98061199955</v>
+        <v>27397.20694016362</v>
       </c>
       <c r="D85">
-        <v>12172.11455882916</v>
+        <v>4243.907168306556</v>
       </c>
       <c r="E85">
-        <v>4307.924917600607</v>
+        <v>1300.351186171122</v>
       </c>
       <c r="F85">
-        <v>1458.062972817792</v>
+        <v>738.0869621947093</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>262.3</v>
+        <v>309.8</v>
       </c>
       <c r="B86">
-        <v>792917.2608482939</v>
+        <v>216750.0166919296</v>
       </c>
       <c r="C86">
-        <v>23342.63954621482</v>
+        <v>29549.06002947831</v>
       </c>
       <c r="D86">
-        <v>10866.43415092311</v>
+        <v>4480.123319732971</v>
       </c>
       <c r="E86">
-        <v>3893.380192775683</v>
+        <v>1919.605867912056</v>
       </c>
       <c r="F86">
-        <v>1207.531358053884</v>
+        <v>553.3701303005203</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>264.6</v>
+        <v>312.1</v>
       </c>
       <c r="B87">
-        <v>800593.6804611096</v>
+        <v>207509.6718957132</v>
       </c>
       <c r="C87">
-        <v>23513.2984804301</v>
+        <v>29045.31468541055</v>
       </c>
       <c r="D87">
-        <v>10420.75374301703</v>
+        <v>2701.391453687109</v>
       </c>
       <c r="E87">
-        <v>3138.835467950758</v>
+        <v>1518.561932529034</v>
       </c>
       <c r="F87">
-        <v>1096.999743289975</v>
+        <v>476.889855932584</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>266.9</v>
+        <v>314.4</v>
       </c>
       <c r="B88">
-        <v>787070.1000739253</v>
+        <v>201529.3270994968</v>
       </c>
       <c r="C88">
-        <v>20513.95741464539</v>
+        <v>27301.56934134275</v>
       </c>
       <c r="D88">
-        <v>11215.07333511098</v>
+        <v>3422.659587641254</v>
       </c>
       <c r="E88">
-        <v>3064.290743125838</v>
+        <v>847.5179971460207</v>
       </c>
       <c r="F88">
-        <v>1026.468128526067</v>
+        <v>850.409581564646</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>269.5</v>
+        <v>316.7</v>
       </c>
       <c r="B89">
-        <v>775387.7918101515</v>
+        <v>200108.9823032804</v>
       </c>
       <c r="C89">
-        <v>20962.963166367</v>
+        <v>27097.82399727499</v>
       </c>
       <c r="D89">
-        <v>10159.08678704324</v>
+        <v>5173.927721595392</v>
       </c>
       <c r="E89">
-        <v>3848.283662888967</v>
+        <v>896.4740617629996</v>
       </c>
       <c r="F89">
-        <v>1037.171520532085</v>
+        <v>633.9293071967099</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>271.7</v>
+        <v>319</v>
       </c>
       <c r="B90">
-        <v>720510.454048497</v>
+        <v>193298.637507064</v>
       </c>
       <c r="C90">
-        <v>22007.50649474685</v>
+        <v>24984.0786532072</v>
       </c>
       <c r="D90">
-        <v>9660.175092524405</v>
+        <v>4555.195855549522</v>
       </c>
       <c r="E90">
-        <v>3910.893056534689</v>
+        <v>5085.430126379977</v>
       </c>
       <c r="F90">
-        <v>1026.228236844868</v>
+        <v>257.4490328287718</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>274</v>
+        <v>321.9</v>
       </c>
       <c r="B91">
-        <v>643646.8736613126</v>
+        <v>188261.2462422695</v>
       </c>
       <c r="C91">
-        <v>20338.16542896212</v>
+        <v>21711.53017590437</v>
       </c>
       <c r="D91">
-        <v>10614.49468461834</v>
+        <v>3256.360024448222</v>
       </c>
       <c r="E91">
-        <v>2926.348331709764</v>
+        <v>1154.983425244872</v>
       </c>
       <c r="F91">
-        <v>1185.696622080961</v>
+        <v>314.4956434083304</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>276.3</v>
+        <v>324.2</v>
       </c>
       <c r="B92">
-        <v>591393.2932741281</v>
+        <v>173190.9014460531</v>
       </c>
       <c r="C92">
-        <v>19788.82436317739</v>
+        <v>16777.78483183659</v>
       </c>
       <c r="D92">
-        <v>10308.81427671227</v>
+        <v>2677.628158402353</v>
       </c>
       <c r="E92">
-        <v>3721.80360688484</v>
+        <v>643.9394898618502</v>
       </c>
       <c r="F92">
-        <v>1165.165007317054</v>
+        <v>458.015369040394</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>278.9</v>
+        <v>326.5</v>
       </c>
       <c r="B93">
-        <v>521730.9850103545</v>
+        <v>189470.5566498367</v>
       </c>
       <c r="C93">
-        <v>21607.83011489903</v>
+        <v>13404.03948776879</v>
       </c>
       <c r="D93">
-        <v>11052.82772864455</v>
+        <v>3258.896292356505</v>
       </c>
       <c r="E93">
-        <v>3575.796526647973</v>
+        <v>1852.895554478833</v>
       </c>
       <c r="F93">
-        <v>1065.868399323069</v>
+        <v>661.5350946724559</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>281.1</v>
+        <v>328.4</v>
       </c>
       <c r="B94">
-        <v>478223.6472486999</v>
+        <v>176111.5761660058</v>
       </c>
       <c r="C94">
-        <v>18982.37344327885</v>
+        <v>13326.16289919109</v>
       </c>
       <c r="D94">
-        <v>10183.91603412569</v>
+        <v>2936.900403014261</v>
       </c>
       <c r="E94">
-        <v>3218.405920293691</v>
+        <v>898.1201295972105</v>
       </c>
       <c r="F94">
-        <v>954.9251156358528</v>
+        <v>592.7035636728574</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>283.5</v>
+        <v>331.3</v>
       </c>
       <c r="B95">
-        <v>430133.8242359858</v>
+        <v>177654.1849012112</v>
       </c>
       <c r="C95">
-        <v>21179.14798332957</v>
+        <v>12563.61442188822</v>
       </c>
       <c r="D95">
-        <v>9621.466912832417</v>
+        <v>2188.064571912953</v>
       </c>
       <c r="E95">
-        <v>3586.707076998121</v>
+        <v>797.6734284620961</v>
       </c>
       <c r="F95">
-        <v>544.8051697952543</v>
+        <v>669.7501742524139</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>285.7</v>
+        <v>333.6</v>
       </c>
       <c r="B96">
-        <v>383636.4864743312</v>
+        <v>177543.8401049948</v>
       </c>
       <c r="C96">
-        <v>20303.69131170941</v>
+        <v>11689.86907782044</v>
       </c>
       <c r="D96">
-        <v>8072.555218313581</v>
+        <v>3449.332705867098</v>
       </c>
       <c r="E96">
-        <v>2279.316470643847</v>
+        <v>666.6294930790787</v>
       </c>
       <c r="F96">
-        <v>803.861886108038</v>
+        <v>393.2698998844775</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>288</v>
+        <v>335.9</v>
       </c>
       <c r="B97">
-        <v>359472.9060871468</v>
+        <v>161733.4953087784</v>
       </c>
       <c r="C97">
-        <v>20574.35024592468</v>
+        <v>11726.12373375268</v>
       </c>
       <c r="D97">
-        <v>9316.874810407513</v>
+        <v>5370.600839821243</v>
       </c>
       <c r="E97">
-        <v>3144.771745818922</v>
+        <v>1705.585557696062</v>
       </c>
       <c r="F97">
-        <v>803.3302713441304</v>
+        <v>306.7896255165397</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>290.3</v>
+        <v>338.2</v>
       </c>
       <c r="B98">
-        <v>330589.3256999624</v>
+        <v>168743.1505125621</v>
       </c>
       <c r="C98">
-        <v>22375.00918013996</v>
+        <v>11212.37838968489</v>
       </c>
       <c r="D98">
-        <v>8341.194402501445</v>
+        <v>3441.868973775374</v>
       </c>
       <c r="E98">
-        <v>3520.227020993997</v>
+        <v>684.5416223130401</v>
       </c>
       <c r="F98">
-        <v>872.798656580223</v>
+        <v>220.3093511486034</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>292.6</v>
+        <v>340.4</v>
       </c>
       <c r="B99">
-        <v>307745.7453127781</v>
+        <v>165990.646794442</v>
       </c>
       <c r="C99">
-        <v>21455.66811435525</v>
+        <v>9670.100234489637</v>
       </c>
       <c r="D99">
-        <v>9425.513994595378</v>
+        <v>2674.821101905414</v>
       </c>
       <c r="E99">
-        <v>2975.682296169073</v>
+        <v>380.0648145553732</v>
       </c>
       <c r="F99">
-        <v>622.2670418163136</v>
+        <v>1073.24126262275</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>295.2</v>
+        <v>342.7</v>
       </c>
       <c r="B100">
-        <v>291643.4370490044</v>
+        <v>172740.3019982256</v>
       </c>
       <c r="C100">
-        <v>31984.67386607686</v>
+        <v>12086.35489042184</v>
       </c>
       <c r="D100">
-        <v>8089.52744652766</v>
+        <v>4136.089235859545</v>
       </c>
       <c r="E100">
-        <v>1999.675215932203</v>
+        <v>1089.020879172352</v>
       </c>
       <c r="F100">
-        <v>832.9704338223313</v>
+        <v>476.760988254814</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>297.5</v>
+        <v>345</v>
       </c>
       <c r="B101">
-        <v>264869.8566618202</v>
+        <v>182179.9572020092</v>
       </c>
       <c r="C101">
-        <v>27085.33280029214</v>
+        <v>10532.60954635408</v>
       </c>
       <c r="D101">
-        <v>8723.847038621592</v>
+        <v>3827.35736981369</v>
       </c>
       <c r="E101">
-        <v>3065.130491107278</v>
+        <v>1887.976943789335</v>
       </c>
       <c r="F101">
-        <v>882.4388190584237</v>
+        <v>270.2807138868759</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>300.1</v>
+        <v>347</v>
       </c>
       <c r="B102">
-        <v>240407.5483980465</v>
+        <v>185323.1356400819</v>
       </c>
       <c r="C102">
-        <v>40494.33855201375</v>
+        <v>10693.26576890383</v>
       </c>
       <c r="D102">
-        <v>6417.860490553852</v>
+        <v>3993.67748629555</v>
       </c>
       <c r="E102">
-        <v>6879.12341087041</v>
+        <v>1506.634391282358</v>
       </c>
       <c r="F102">
-        <v>1593.142211064441</v>
+        <v>462.0369970451922</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>302.7</v>
+        <v>350</v>
       </c>
       <c r="B103">
-        <v>224985.2401342728</v>
+        <v>180637.903297191</v>
       </c>
       <c r="C103">
-        <v>31553.34430373539</v>
+        <v>11569.25010272847</v>
       </c>
       <c r="D103">
-        <v>5841.873942486149</v>
+        <v>3903.157661018347</v>
       </c>
       <c r="E103">
-        <v>2423.116330633537</v>
+        <v>2289.620562521904</v>
       </c>
       <c r="F103">
-        <v>603.8456030704569</v>
+        <v>469.6714217826658</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>305</v>
+        <v>352.2</v>
       </c>
       <c r="B104">
-        <v>218251.6597470885</v>
+        <v>187385.3995790709</v>
       </c>
       <c r="C104">
-        <v>28784.00323795066</v>
+        <v>13856.97194753322</v>
       </c>
       <c r="D104">
-        <v>6006.193534580067</v>
+        <v>4196.109789148381</v>
       </c>
       <c r="E104">
-        <v>3688.571605808612</v>
+        <v>2505.143754764234</v>
       </c>
       <c r="F104">
-        <v>1553.313988306549</v>
+        <v>532.6033332568129</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>307.2</v>
+        <v>354.8</v>
       </c>
       <c r="B105">
-        <v>200504.3219854339</v>
+        <v>189321.5315485654</v>
       </c>
       <c r="C105">
-        <v>31528.5465663305</v>
+        <v>10528.82503684788</v>
       </c>
       <c r="D105">
-        <v>7687.28184006123</v>
+        <v>4432.325940574796</v>
       </c>
       <c r="E105">
-        <v>2851.180999454338</v>
+        <v>2424.39843650516</v>
       </c>
       <c r="F105">
-        <v>922.3707046193332</v>
+        <v>157.8865013626239</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>309.8</v>
+        <v>356.8</v>
       </c>
       <c r="B106">
-        <v>210042.0137216602</v>
+        <v>197374.7099866382</v>
       </c>
       <c r="C106">
-        <v>33617.5523180521</v>
+        <v>10469.48125939766</v>
       </c>
       <c r="D106">
-        <v>7531.295291993505</v>
+        <v>4038.646057056656</v>
       </c>
       <c r="E106">
-        <v>3455.173919217467</v>
+        <v>3713.055883998191</v>
       </c>
       <c r="F106">
-        <v>733.0740966253506</v>
+        <v>429.6427845209402</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>312.1</v>
+        <v>359.4</v>
       </c>
       <c r="B107">
-        <v>200608.4333344758</v>
+        <v>211300.8419561328</v>
       </c>
       <c r="C107">
-        <v>33058.21125226739</v>
+        <v>12951.33434871234</v>
       </c>
       <c r="D107">
-        <v>5405.614884087423</v>
+        <v>6704.862208483086</v>
       </c>
       <c r="E107">
-        <v>3040.629194392539</v>
+        <v>4652.310565739133</v>
       </c>
       <c r="F107">
-        <v>652.5424818614431</v>
+        <v>664.9259526267497</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>314.4</v>
+        <v>361.6</v>
       </c>
       <c r="B108">
-        <v>194434.8529472914</v>
+        <v>207408.3382380127</v>
       </c>
       <c r="C108">
-        <v>31258.87018648268</v>
+        <v>11949.05619351707</v>
       </c>
       <c r="D108">
-        <v>5779.934476181374</v>
+        <v>7667.814336613126</v>
       </c>
       <c r="E108">
-        <v>2356.084469567619</v>
+        <v>6347.833757981454</v>
       </c>
       <c r="F108">
-        <v>1022.010867097536</v>
+        <v>347.857864100898</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>316.7</v>
+        <v>363.9</v>
       </c>
       <c r="B109">
-        <v>192821.2725601071</v>
+        <v>207817.9934417963</v>
       </c>
       <c r="C109">
-        <v>30999.52912069796</v>
+        <v>10295.3108494493</v>
       </c>
       <c r="D109">
-        <v>7184.25406827531</v>
+        <v>7089.082470567257</v>
       </c>
       <c r="E109">
-        <v>2391.539744742694</v>
+        <v>5796.789822598441</v>
       </c>
       <c r="F109">
-        <v>801.4792523336265</v>
+        <v>741.3775897329601</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>319</v>
+        <v>366.2</v>
       </c>
       <c r="B110">
-        <v>185817.6921729227</v>
+        <v>216867.6486455799</v>
       </c>
       <c r="C110">
-        <v>28830.18805491321</v>
+        <v>10941.56550538152</v>
       </c>
       <c r="D110">
-        <v>6218.573660369242</v>
+        <v>8270.350604521387</v>
       </c>
       <c r="E110">
-        <v>6566.995019917766</v>
+        <v>7465.745887215418</v>
       </c>
       <c r="F110">
-        <v>420.9476375697189</v>
+        <v>514.8973153650222</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>321.9</v>
+        <v>368.8</v>
       </c>
       <c r="B111">
-        <v>180536.6560325598</v>
+        <v>215873.7806150744</v>
       </c>
       <c r="C111">
-        <v>25487.54062414119</v>
+        <v>12393.41859469621</v>
       </c>
       <c r="D111">
-        <v>4482.280972139863</v>
+        <v>10436.56675594782</v>
       </c>
       <c r="E111">
-        <v>2619.525584268953</v>
+        <v>9395.000568956355</v>
       </c>
       <c r="F111">
-        <v>472.8860363456615</v>
+        <v>740.1804834708332</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>324.2</v>
+        <v>371.1</v>
       </c>
       <c r="B112">
-        <v>165273.0756453754</v>
+        <v>218723.435818858</v>
       </c>
       <c r="C112">
-        <v>20498.19955835646</v>
+        <v>12169.67325062842</v>
       </c>
       <c r="D112">
-        <v>3556.600564233799</v>
+        <v>11317.83488990195</v>
       </c>
       <c r="E112">
-        <v>2094.980859444028</v>
+        <v>11883.95663357334</v>
       </c>
       <c r="F112">
-        <v>612.3544215817523</v>
+        <v>503.7002091028968</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>326.5</v>
+        <v>373.4</v>
       </c>
       <c r="B113">
-        <v>181359.4952581911</v>
+        <v>224473.0910226417</v>
       </c>
       <c r="C113">
-        <v>17068.85849257175</v>
+        <v>11215.92790656066</v>
       </c>
       <c r="D113">
-        <v>3790.920156327731</v>
+        <v>10029.10302385609</v>
       </c>
       <c r="E113">
-        <v>3290.436134619104</v>
+        <v>14292.91269819032</v>
       </c>
       <c r="F113">
-        <v>811.8228068178466</v>
+        <v>637.219934734959</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>328.4</v>
+        <v>375.7</v>
       </c>
       <c r="B114">
-        <v>167840.8853731257</v>
+        <v>237472.7462264253</v>
       </c>
       <c r="C114">
-        <v>16945.05500344525</v>
+        <v>10472.18256249288</v>
       </c>
       <c r="D114">
-        <v>3182.314601970549</v>
+        <v>12290.37115781022</v>
       </c>
       <c r="E114">
-        <v>2324.507883676776</v>
+        <v>17991.8687628073</v>
       </c>
       <c r="F114">
-        <v>739.6445163607034</v>
+        <v>350.7396603670229</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>331.3</v>
+        <v>377.9</v>
       </c>
       <c r="B115">
-        <v>169139.8492327628</v>
+        <v>241320.2425083052</v>
       </c>
       <c r="C115">
-        <v>16112.40757267319</v>
+        <v>11299.90440729761</v>
       </c>
       <c r="D115">
-        <v>1996.021913741155</v>
+        <v>16663.32328594028</v>
       </c>
       <c r="E115">
-        <v>2207.038448027955</v>
+        <v>21877.39195504963</v>
       </c>
       <c r="F115">
-        <v>811.5829151366459</v>
+        <v>313.6715718411697</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>333.6</v>
+        <v>380.5</v>
       </c>
       <c r="B116">
-        <v>168836.2688455785</v>
+        <v>257806.3744777998</v>
       </c>
       <c r="C116">
-        <v>15183.06650688846</v>
+        <v>13641.75749661231</v>
       </c>
       <c r="D116">
-        <v>2910.341505835087</v>
+        <v>17199.53943736669</v>
       </c>
       <c r="E116">
-        <v>2062.493723203031</v>
+        <v>26176.64663679057</v>
       </c>
       <c r="F116">
-        <v>531.0513003727383</v>
+        <v>728.9547399469807</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>335.9</v>
+        <v>382.8</v>
       </c>
       <c r="B117">
-        <v>152832.6884583941</v>
+        <v>269926.0296815835</v>
       </c>
       <c r="C117">
-        <v>15163.72544110375</v>
+        <v>11648.01215254451</v>
       </c>
       <c r="D117">
-        <v>4484.661097929024</v>
+        <v>20170.80757132082</v>
       </c>
       <c r="E117">
-        <v>3087.94899837811</v>
+        <v>31445.60270140755</v>
       </c>
       <c r="F117">
-        <v>440.519685608831</v>
+        <v>312.4744655790444</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>338.2</v>
+        <v>385.1</v>
       </c>
       <c r="B118">
-        <v>159649.1080712097</v>
+        <v>285835.6848853671</v>
       </c>
       <c r="C118">
-        <v>14594.38437531903</v>
+        <v>11444.26680847673</v>
       </c>
       <c r="D118">
-        <v>2208.98069002296</v>
+        <v>23922.07570527497</v>
       </c>
       <c r="E118">
-        <v>2053.404273553186</v>
+        <v>39734.55876602451</v>
       </c>
       <c r="F118">
-        <v>349.9880708449216</v>
+        <v>405.9941912111062</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>340.4</v>
+        <v>387.4</v>
       </c>
       <c r="B119">
-        <v>156711.770309555</v>
+        <v>309685.3400891507</v>
       </c>
       <c r="C119">
-        <v>12998.92770369886</v>
+        <v>13840.52146440897</v>
       </c>
       <c r="D119">
-        <v>1110.06899550412</v>
+        <v>29263.3438392291</v>
       </c>
       <c r="E119">
-        <v>1736.013667198912</v>
+        <v>50223.51483064149</v>
       </c>
       <c r="F119">
-        <v>1199.044787157707</v>
+        <v>119.5139168431701</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>342.7</v>
+        <v>390</v>
       </c>
       <c r="B120">
-        <v>163268.1899223707</v>
+        <v>340321.4720586452</v>
       </c>
       <c r="C120">
-        <v>15359.58663791414</v>
+        <v>13452.37455372365</v>
       </c>
       <c r="D120">
-        <v>2224.388587598052</v>
+        <v>33299.55999065553</v>
       </c>
       <c r="E120">
-        <v>2431.468942373987</v>
+        <v>62882.76951238244</v>
       </c>
       <c r="F120">
-        <v>598.513172393798</v>
+        <v>624.7970849489814</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>345</v>
+        <v>392.2</v>
       </c>
       <c r="B121">
-        <v>172514.6095351864</v>
+        <v>381648.9683405252</v>
       </c>
       <c r="C121">
-        <v>13750.24557212942</v>
+        <v>12250.09639852839</v>
       </c>
       <c r="D121">
-        <v>1568.708179691988</v>
+        <v>38772.51211878556</v>
       </c>
       <c r="E121">
-        <v>3216.924217549063</v>
+        <v>79298.29270462476</v>
       </c>
       <c r="F121">
-        <v>387.9815576298904</v>
+        <v>757.7289964231281</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>347</v>
+        <v>394.5</v>
       </c>
       <c r="B122">
-        <v>175489.7570245912</v>
+        <v>424508.6235443088</v>
       </c>
       <c r="C122">
-        <v>13862.55768883835</v>
+        <v>12436.35105446061</v>
       </c>
       <c r="D122">
-        <v>1433.333911947579</v>
+        <v>46523.7802527397</v>
       </c>
       <c r="E122">
-        <v>2823.841848136084</v>
+        <v>100877.2487692417</v>
       </c>
       <c r="F122">
-        <v>576.214936096058</v>
+        <v>631.2487220551918</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>350</v>
+        <v>397.1</v>
       </c>
       <c r="B123">
-        <v>170552.4782586986</v>
+        <v>483594.7555138033</v>
       </c>
       <c r="C123">
-        <v>14666.02586390177</v>
+        <v>12418.2041437753</v>
       </c>
       <c r="D123">
-        <v>890.2725103309713</v>
+        <v>54869.99640416613</v>
       </c>
       <c r="E123">
-        <v>3589.218294016618</v>
+        <v>120376.5034509827</v>
       </c>
       <c r="F123">
-        <v>578.5650037953076</v>
+        <v>466.5318901610009</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>352.2</v>
+        <v>399.4</v>
       </c>
       <c r="B124">
-        <v>177115.1404970439</v>
+        <v>544824.4107175869</v>
       </c>
       <c r="C124">
-        <v>16900.5691922816</v>
+        <v>15394.45879970753</v>
       </c>
       <c r="D124">
-        <v>851.3608158121315</v>
+        <v>65281.26453812026</v>
       </c>
       <c r="E124">
-        <v>3791.827687662343</v>
+        <v>141075.4595155997</v>
       </c>
       <c r="F124">
-        <v>637.6217201080913</v>
+        <v>870.0516157930631</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>354.8</v>
+        <v>401.7</v>
       </c>
       <c r="B125">
-        <v>178832.8322332703</v>
+        <v>593764.0659213705</v>
       </c>
       <c r="C125">
-        <v>13509.57494400321</v>
+        <v>9650.713455639747</v>
       </c>
       <c r="D125">
-        <v>695.3742677444097</v>
+        <v>78342.53267207441</v>
       </c>
       <c r="E125">
-        <v>3695.820607425469</v>
+        <v>161664.4155802167</v>
       </c>
       <c r="F125">
-        <v>258.3251121141086</v>
+        <v>603.571341425127</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>356.8</v>
+        <v>404</v>
       </c>
       <c r="B126">
-        <v>186717.9797226753</v>
+        <v>654253.7211251539</v>
       </c>
       <c r="C126">
-        <v>13401.88706071216</v>
+        <v>11276.96811157196</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>91443.80080602854</v>
       </c>
       <c r="E126">
-        <v>4972.738238012491</v>
+        <v>178373.3716448336</v>
       </c>
       <c r="F126">
-        <v>526.5584905802762</v>
+        <v>827.0910670571907</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>359.4</v>
+        <v>406.6</v>
       </c>
       <c r="B127">
-        <v>200425.6714589016</v>
+        <v>716539.8530946485</v>
       </c>
       <c r="C127">
-        <v>15820.89281243378</v>
+        <v>12398.82120088664</v>
       </c>
       <c r="D127">
-        <v>2274.013451932278</v>
+        <v>109810.0169574549</v>
       </c>
       <c r="E127">
-        <v>5896.73115777562</v>
+        <v>186702.6263265746</v>
       </c>
       <c r="F127">
-        <v>757.2618825862937</v>
+        <v>782.3742351629999</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>361.6</v>
+        <v>408.5</v>
       </c>
       <c r="B128">
-        <v>196348.3336972469</v>
+        <v>749420.8726108175</v>
       </c>
       <c r="C128">
-        <v>14765.4361408136</v>
+        <v>13380.94461230892</v>
       </c>
       <c r="D128">
-        <v>2905.101757413424</v>
+        <v>129378.0210681127</v>
       </c>
       <c r="E128">
-        <v>7579.340551421349</v>
+        <v>200397.8509016929</v>
       </c>
       <c r="F128">
-        <v>436.3185988990772</v>
+        <v>603.5427041634011</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>363.9</v>
+        <v>411.1</v>
       </c>
       <c r="B129">
-        <v>196564.7533100626</v>
+        <v>811147.0045803121</v>
       </c>
       <c r="C129">
-        <v>13056.09507502889</v>
+        <v>11752.7977016236</v>
       </c>
       <c r="D129">
-        <v>1979.421349507375</v>
+        <v>152504.2372195391</v>
       </c>
       <c r="E129">
-        <v>7014.795826596429</v>
+        <v>222677.1055834339</v>
       </c>
       <c r="F129">
-        <v>825.7869841351699</v>
+        <v>758.8258722692105</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>366.2</v>
+        <v>413.4</v>
       </c>
       <c r="B130">
-        <v>205421.1729228782</v>
+        <v>876766.6597840957</v>
       </c>
       <c r="C130">
-        <v>13646.75400924416</v>
+        <v>13989.05235755584</v>
       </c>
       <c r="D130">
-        <v>2813.740941601292</v>
+        <v>178515.5053534933</v>
       </c>
       <c r="E130">
-        <v>8670.251101771501</v>
+        <v>248136.0616480509</v>
       </c>
       <c r="F130">
-        <v>595.2553693712607</v>
+        <v>1152.345597901274</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>368.8</v>
+        <v>415.6</v>
       </c>
       <c r="B131">
-        <v>204208.8646591046</v>
+        <v>977944.1560659758</v>
       </c>
       <c r="C131">
-        <v>15035.75976096578</v>
+        <v>13816.77420236056</v>
       </c>
       <c r="D131">
-        <v>4587.754393533571</v>
+        <v>207018.4574816233</v>
       </c>
       <c r="E131">
-        <v>10584.24402153462</v>
+        <v>284711.5848402932</v>
       </c>
       <c r="F131">
-        <v>815.9587613772781</v>
+        <v>925.277509375421</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>371.1</v>
+        <v>417.9</v>
       </c>
       <c r="B132">
-        <v>206865.2842719202</v>
+        <v>1112173.811269759</v>
       </c>
       <c r="C132">
-        <v>14756.41869518105</v>
+        <v>15193.0288582928</v>
       </c>
       <c r="D132">
-        <v>5122.073985627503</v>
+        <v>240459.7256155775</v>
       </c>
       <c r="E132">
-        <v>13059.6992967097</v>
+        <v>356960.5409049101</v>
       </c>
       <c r="F132">
-        <v>575.4271466133705</v>
+        <v>1068.797235007485</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>373.4</v>
+        <v>420.5</v>
       </c>
       <c r="B133">
-        <v>212421.7038847358</v>
+        <v>1337789.943239254</v>
       </c>
       <c r="C133">
-        <v>13747.07762939634</v>
+        <v>15404.88194760748</v>
       </c>
       <c r="D133">
-        <v>3486.393577721454</v>
+        <v>279155.9417670039</v>
       </c>
       <c r="E133">
-        <v>15455.15457188478</v>
+        <v>464369.7955866511</v>
       </c>
       <c r="F133">
-        <v>704.8955318494632</v>
+        <v>1824.080403113296</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>375.7</v>
+        <v>422.7</v>
       </c>
       <c r="B134">
-        <v>225228.1234975515</v>
+        <v>1486537.439521134</v>
       </c>
       <c r="C134">
-        <v>12947.73656361162</v>
+        <v>16272.60379241221</v>
       </c>
       <c r="D134">
-        <v>5400.713169815372</v>
+        <v>322778.8938951339</v>
       </c>
       <c r="E134">
-        <v>19140.60984705986</v>
+        <v>681865.3187788934</v>
       </c>
       <c r="F134">
-        <v>414.363917085554</v>
+        <v>1637.012314587443</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>377.9</v>
+        <v>425</v>
       </c>
       <c r="B135">
-        <v>228890.7857358969</v>
+        <v>1504507.094724918</v>
       </c>
       <c r="C135">
-        <v>13722.27989199146</v>
+        <v>19828.85844834445</v>
       </c>
       <c r="D135">
-        <v>9441.801475296536</v>
+        <v>372770.1620290881</v>
       </c>
       <c r="E135">
-        <v>23013.21924070558</v>
+        <v>1182604.27484351</v>
       </c>
       <c r="F135">
-        <v>373.4206333983395</v>
+        <v>2500.532040219507</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>380.5</v>
+        <v>427.2</v>
       </c>
       <c r="B136">
-        <v>245158.4774721232</v>
+        <v>1504554.591006797</v>
       </c>
       <c r="C136">
-        <v>16001.28564371307</v>
+        <v>18226.58029314917</v>
       </c>
       <c r="D136">
-        <v>9585.814927228814</v>
+        <v>419983.1141572181</v>
       </c>
       <c r="E136">
-        <v>27297.21216046871</v>
+        <v>964459.7980357527</v>
       </c>
       <c r="F136">
-        <v>784.1240254043551</v>
+        <v>2043.463951693653</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>382.8</v>
+        <v>429.5</v>
       </c>
       <c r="B137">
-        <v>257084.8970849389</v>
+        <v>1504604.246210581</v>
       </c>
       <c r="C137">
-        <v>13951.94457792835</v>
+        <v>17442.83494908139</v>
       </c>
       <c r="D137">
-        <v>12210.13451932273</v>
+        <v>395134.3822911722</v>
       </c>
       <c r="E137">
-        <v>32552.66743564379</v>
+        <v>434478.7541003697</v>
       </c>
       <c r="F137">
-        <v>363.5924106404475</v>
+        <v>1186.983677325715</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>385.1</v>
+        <v>431.8</v>
       </c>
       <c r="B138">
-        <v>272801.3166977544</v>
+        <v>1471353.901414365</v>
       </c>
       <c r="C138">
-        <v>13692.60351214362</v>
+        <v>16449.08960501361</v>
       </c>
       <c r="D138">
-        <v>15614.45411141668</v>
+        <v>373565.6504251264</v>
       </c>
       <c r="E138">
-        <v>40828.12271081887</v>
+        <v>168397.7101649867</v>
       </c>
       <c r="F138">
-        <v>453.0607958765402</v>
+        <v>480.5034029577789</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>387.4</v>
+        <v>434.1</v>
       </c>
       <c r="B139">
-        <v>296457.73631057</v>
+        <v>898623.5566181481</v>
       </c>
       <c r="C139">
-        <v>16033.26244635891</v>
+        <v>15065.34426094583</v>
       </c>
       <c r="D139">
-        <v>20608.77370351063</v>
+        <v>342916.9185590805</v>
       </c>
       <c r="E139">
-        <v>51303.57798599395</v>
+        <v>101396.6662296037</v>
       </c>
       <c r="F139">
-        <v>162.5291811126328</v>
+        <v>624.0231285898428</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>390</v>
+        <v>436.3</v>
       </c>
       <c r="B140">
-        <v>326875.4280467964</v>
+        <v>674421.0529000282</v>
       </c>
       <c r="C140">
-        <v>15582.26819808053</v>
+        <v>15553.06610575057</v>
       </c>
       <c r="D140">
-        <v>24252.78715544289</v>
+        <v>317479.8706872106</v>
       </c>
       <c r="E140">
-        <v>63947.57090575706</v>
+        <v>79272.18942184599</v>
       </c>
       <c r="F140">
-        <v>663.2325731186484</v>
+        <v>926.9550400639896</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>392.2</v>
+        <v>438.9</v>
       </c>
       <c r="B141">
-        <v>368018.0902851418</v>
+        <v>583937.1848695227</v>
       </c>
       <c r="C141">
-        <v>14326.81152646036</v>
+        <v>14274.91919506526</v>
       </c>
       <c r="D141">
-        <v>29393.87546092404</v>
+        <v>296756.086838637</v>
       </c>
       <c r="E141">
-        <v>80350.18029940278</v>
+        <v>67751.44410358694</v>
       </c>
       <c r="F141">
-        <v>792.2892894314321</v>
+        <v>562.238208169799</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>394.5</v>
+        <v>441.2</v>
       </c>
       <c r="B142">
-        <v>410684.5098979574</v>
+        <v>515856.8400733065</v>
       </c>
       <c r="C142">
-        <v>14457.47046067564</v>
+        <v>14531.17385099749</v>
       </c>
       <c r="D142">
-        <v>36798.19505301799</v>
+        <v>272127.3549725911</v>
       </c>
       <c r="E142">
-        <v>101915.6355745779</v>
+        <v>60530.40016820392</v>
       </c>
       <c r="F142">
-        <v>661.7576746675245</v>
+        <v>885.7579338018627</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>397.1</v>
+        <v>443.5</v>
       </c>
       <c r="B143">
-        <v>469552.2016341838</v>
+        <v>465146.49527709</v>
       </c>
       <c r="C143">
-        <v>14376.47621239725</v>
+        <v>12717.4285069297</v>
       </c>
       <c r="D143">
-        <v>44752.20850495025</v>
+        <v>246478.6231065452</v>
       </c>
       <c r="E143">
-        <v>121399.628494341</v>
+        <v>55049.3562328209</v>
       </c>
       <c r="F143">
-        <v>492.4610666735421</v>
+        <v>729.2776594339264</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>399.4</v>
+        <v>445.8</v>
       </c>
       <c r="B144">
-        <v>530588.6212469995</v>
+        <v>427186.1504808736</v>
       </c>
       <c r="C144">
-        <v>17297.13514661253</v>
+        <v>12943.68316286193</v>
       </c>
       <c r="D144">
-        <v>54816.5280970442</v>
+        <v>211599.8912404994</v>
       </c>
       <c r="E144">
-        <v>142085.0837695161</v>
+        <v>50188.31229743789</v>
       </c>
       <c r="F144">
-        <v>891.9294519096347</v>
+        <v>262.7973850659882</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>401.7</v>
+        <v>448</v>
       </c>
       <c r="B145">
-        <v>579335.0408598151</v>
+        <v>381763.6467627537</v>
       </c>
       <c r="C145">
-        <v>11497.79408082782</v>
+        <v>11651.40500766666</v>
       </c>
       <c r="D145">
-        <v>67530.84768913811</v>
+        <v>184612.8433686294</v>
       </c>
       <c r="E145">
-        <v>162660.5390446911</v>
+        <v>46883.83548968021</v>
       </c>
       <c r="F145">
-        <v>621.3978371457254</v>
+        <v>475.729296540137</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>404</v>
+        <v>450.6</v>
       </c>
       <c r="B146">
-        <v>639631.4604726308</v>
+        <v>354959.7787322482</v>
       </c>
       <c r="C146">
-        <v>13068.45301504309</v>
+        <v>12623.25809698134</v>
       </c>
       <c r="D146">
-        <v>80285.16728123206</v>
+        <v>160159.0595200558</v>
       </c>
       <c r="E146">
-        <v>179355.9943198662</v>
+        <v>43613.09017142115</v>
       </c>
       <c r="F146">
-        <v>840.8662223818178</v>
+        <v>581.0124646459462</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>406.6</v>
+        <v>452.9</v>
       </c>
       <c r="B147">
-        <v>701699.152208857</v>
+        <v>335839.4339360318</v>
       </c>
       <c r="C147">
-        <v>14127.45876676471</v>
+        <v>12799.51275291358</v>
       </c>
       <c r="D147">
-        <v>98259.18073316432</v>
+        <v>142620.32765401</v>
       </c>
       <c r="E147">
-        <v>187669.9872396294</v>
+        <v>39592.04623603814</v>
       </c>
       <c r="F147">
-        <v>791.5696143878354</v>
+        <v>644.5321902780083</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>408.5</v>
+        <v>455.2</v>
       </c>
       <c r="B148">
-        <v>734420.5423237917</v>
+        <v>309819.0891398154</v>
       </c>
       <c r="C148">
-        <v>15063.65527763821</v>
+        <v>12105.7674088458</v>
       </c>
       <c r="D148">
-        <v>117540.5751788072</v>
+        <v>124941.5957879641</v>
       </c>
       <c r="E148">
-        <v>201354.058988687</v>
+        <v>36331.00230065511</v>
       </c>
       <c r="F148">
-        <v>609.3913239306939</v>
+        <v>818.0519159100738</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>411.1</v>
+        <v>457.4</v>
       </c>
       <c r="B149">
-        <v>795928.2340600181</v>
+        <v>284646.5854216953</v>
       </c>
       <c r="C149">
-        <v>13372.66102935982</v>
+        <v>11013.48925365054</v>
       </c>
       <c r="D149">
-        <v>140274.5886307394</v>
+        <v>112414.5479160942</v>
       </c>
       <c r="E149">
-        <v>223618.0519084501</v>
+        <v>31606.52549289744</v>
       </c>
       <c r="F149">
-        <v>760.0947159367115</v>
+        <v>260.9838273842188</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>413.4</v>
+        <v>459.7</v>
       </c>
       <c r="B150">
-        <v>861354.6536728338</v>
+        <v>271386.2406254789</v>
       </c>
       <c r="C150">
-        <v>15553.31996357511</v>
+        <v>11489.74390958276</v>
       </c>
       <c r="D150">
-        <v>165938.9082228334</v>
+        <v>103395.8160500483</v>
       </c>
       <c r="E150">
-        <v>249063.5071836252</v>
+        <v>30085.48155751444</v>
       </c>
       <c r="F150">
-        <v>1149.563101172804</v>
+        <v>644.5035530162845</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>415.6</v>
+        <v>462.3</v>
       </c>
       <c r="B151">
-        <v>962347.3159111791</v>
+        <v>247442.3725949734</v>
       </c>
       <c r="C151">
-        <v>15327.86329195493</v>
+        <v>12521.59699889744</v>
       </c>
       <c r="D151">
-        <v>194109.9965283145</v>
+        <v>96612.03220147472</v>
       </c>
       <c r="E151">
-        <v>285626.1165772709</v>
+        <v>28374.73623925537</v>
       </c>
       <c r="F151">
-        <v>918.6198174855876</v>
+        <v>659.7867211220937</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>417.9</v>
+        <v>464.6</v>
       </c>
       <c r="B152">
-        <v>1096383.735523995</v>
+        <v>226962.027798757</v>
       </c>
       <c r="C152">
-        <v>16648.52222617021</v>
+        <v>10667.85165482966</v>
       </c>
       <c r="D152">
-        <v>227204.3161204084</v>
+        <v>92143.30033542887</v>
       </c>
       <c r="E152">
-        <v>357861.571852446</v>
+        <v>25403.69230387235</v>
       </c>
       <c r="F152">
-        <v>1058.088202721678</v>
+        <v>523.3064467541556</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>420.5</v>
+        <v>466.9</v>
       </c>
       <c r="B153">
-        <v>1321781.427260221</v>
+        <v>215131.6830025407</v>
       </c>
       <c r="C153">
-        <v>16797.52797789184</v>
+        <v>11064.10631076189</v>
       </c>
       <c r="D153">
-        <v>265508.3295723408</v>
+        <v>90084.56846938298</v>
       </c>
       <c r="E153">
-        <v>465255.5647722092</v>
+        <v>23522.64836848934</v>
       </c>
       <c r="F153">
-        <v>1808.791594727696</v>
+        <v>1076.826172386219</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>422.7</v>
+        <v>469.2</v>
       </c>
       <c r="B154">
-        <v>1470344.089498566</v>
+        <v>201741.3382063243</v>
       </c>
       <c r="C154">
-        <v>17612.07130627166</v>
+        <v>11290.36096669412</v>
       </c>
       <c r="D154">
-        <v>308799.4178778218</v>
+        <v>88755.83660333713</v>
       </c>
       <c r="E154">
-        <v>682738.1741658548</v>
+        <v>22561.60443310632</v>
       </c>
       <c r="F154">
-        <v>1617.84831104048</v>
+        <v>700.3458980182832</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>425</v>
+        <v>471.4</v>
       </c>
       <c r="B155">
-        <v>1488120.509111382</v>
+        <v>189558.8344882043</v>
       </c>
       <c r="C155">
-        <v>21112.73024048694</v>
+        <v>11538.08281149885</v>
       </c>
       <c r="D155">
-        <v>358443.7374699158</v>
+        <v>83158.78873146717</v>
       </c>
       <c r="E155">
-        <v>1183463.62944103</v>
+        <v>19977.12762534865</v>
       </c>
       <c r="F155">
-        <v>2477.316696276572</v>
+        <v>453.2778094924301</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>427.2</v>
+        <v>473.7</v>
       </c>
       <c r="B156">
-        <v>1487983.171349728</v>
+        <v>177838.4896919879</v>
       </c>
       <c r="C156">
-        <v>19457.27356886679</v>
+        <v>12884.33746743107</v>
       </c>
       <c r="D156">
-        <v>405324.825775397</v>
+        <v>82280.05686542133</v>
       </c>
       <c r="E156">
-        <v>965306.2388346758</v>
+        <v>19976.08368996563</v>
       </c>
       <c r="F156">
-        <v>2016.373412589356</v>
+        <v>716.7975351244938</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>429.5</v>
+        <v>476.3</v>
       </c>
       <c r="B157">
-        <v>1487839.590962543</v>
+        <v>167974.6216614824</v>
       </c>
       <c r="C157">
-        <v>18617.93250308205</v>
+        <v>9106.190556745751</v>
       </c>
       <c r="D157">
-        <v>380129.1453674909</v>
+        <v>79726.27301684774</v>
       </c>
       <c r="E157">
-        <v>435311.6941098507</v>
+        <v>17755.33837170656</v>
       </c>
       <c r="F157">
-        <v>1155.841797825448</v>
+        <v>682.080703230303</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>431.8</v>
+        <v>478.2</v>
       </c>
       <c r="B158">
-        <v>1454396.010575359</v>
+        <v>160005.6411776515</v>
       </c>
       <c r="C158">
-        <v>17568.59143729734</v>
+        <v>11418.31396816803</v>
       </c>
       <c r="D158">
-        <v>358213.4649595849</v>
+        <v>81534.2771275055</v>
       </c>
       <c r="E158">
-        <v>169217.1493850258</v>
+        <v>17230.56294682494</v>
       </c>
       <c r="F158">
-        <v>445.3101830615408</v>
+        <v>533.2491722307043</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>434.1</v>
+        <v>480.8</v>
       </c>
       <c r="B159">
-        <v>881472.4301881744</v>
+        <v>172931.773147146</v>
       </c>
       <c r="C159">
-        <v>16129.25037151261</v>
+        <v>11050.16705748271</v>
       </c>
       <c r="D159">
-        <v>327217.7845516787</v>
+        <v>78550.4932789319</v>
       </c>
       <c r="E159">
-        <v>102202.6046602009</v>
+        <v>16379.81762856587</v>
       </c>
       <c r="F159">
-        <v>584.7785682976314</v>
+        <v>488.5323403365134</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>436.3</v>
+        <v>483.1</v>
       </c>
       <c r="B160">
-        <v>657085.0924265198</v>
+        <v>160891.4283509296</v>
       </c>
       <c r="C160">
-        <v>16563.79369989245</v>
+        <v>9406.421713414929</v>
       </c>
       <c r="D160">
-        <v>301448.8728571599</v>
+        <v>78211.76141288604</v>
       </c>
       <c r="E160">
-        <v>80065.21405384663</v>
+        <v>14848.77369318285</v>
       </c>
       <c r="F160">
-        <v>883.8352846104169</v>
+        <v>672.0520659685774</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>438.9</v>
+        <v>485.4</v>
       </c>
       <c r="B161">
-        <v>566382.784162746</v>
+        <v>153821.0835547132</v>
       </c>
       <c r="C161">
-        <v>15222.79945161407</v>
+        <v>11882.67636934717</v>
       </c>
       <c r="D161">
-        <v>280332.8863090922</v>
+        <v>76183.02954684017</v>
       </c>
       <c r="E161">
-        <v>68529.20697360976</v>
+        <v>13987.72975779984</v>
       </c>
       <c r="F161">
-        <v>514.5386766164327</v>
+        <v>505.5717916006412</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>441.2</v>
+        <v>487.9</v>
       </c>
       <c r="B162">
-        <v>498109.2037755617</v>
+        <v>146645.0566023042</v>
       </c>
       <c r="C162">
-        <v>15423.45838582934</v>
+        <v>9745.996647534361</v>
       </c>
       <c r="D162">
-        <v>255357.2059011861</v>
+        <v>75970.9296924425</v>
       </c>
       <c r="E162">
-        <v>61294.66224878485</v>
+        <v>13533.55156716612</v>
       </c>
       <c r="F162">
-        <v>834.0070618525251</v>
+        <v>720.2671455485336</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>443.5</v>
+        <v>490.2</v>
       </c>
       <c r="B163">
-        <v>447205.6233883774</v>
+        <v>141574.7118060878</v>
       </c>
       <c r="C163">
-        <v>13554.11732004462</v>
+        <v>11692.25130346658</v>
       </c>
       <c r="D163">
-        <v>229361.52549328</v>
+        <v>72152.19782639663</v>
       </c>
       <c r="E163">
-        <v>55800.11752395992</v>
+        <v>11532.5076317831</v>
       </c>
       <c r="F163">
-        <v>673.4754470886178</v>
+        <v>693.7868711805991</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>445.8</v>
+        <v>492.5</v>
       </c>
       <c r="B164">
-        <v>409052.043001193</v>
+        <v>133404.3670098713</v>
       </c>
       <c r="C164">
-        <v>13724.77625425989</v>
+        <v>11888.5059593988</v>
       </c>
       <c r="D164">
-        <v>194135.845085374</v>
+        <v>70533.4659603508</v>
       </c>
       <c r="E164">
-        <v>50925.57279913499</v>
+        <v>11311.46369640008</v>
       </c>
       <c r="F164">
-        <v>202.9438323247102</v>
+        <v>1027.306596812661</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>448</v>
+        <v>494.8</v>
       </c>
       <c r="B165">
-        <v>363444.7052395384</v>
+        <v>126584.022213655</v>
       </c>
       <c r="C165">
-        <v>12379.31958263973</v>
+        <v>10124.76061533102</v>
       </c>
       <c r="D165">
-        <v>166816.9333908552</v>
+        <v>71684.73409430492</v>
       </c>
       <c r="E165">
-        <v>47608.18219278073</v>
+        <v>11670.41976101706</v>
       </c>
       <c r="F165">
-        <v>412.0005486374921</v>
+        <v>490.826322444723</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>450.6</v>
+        <v>497.1</v>
       </c>
       <c r="B166">
-        <v>336422.3969757647</v>
+        <v>114243.6774174386</v>
       </c>
       <c r="C166">
-        <v>13288.32533436134</v>
+        <v>9301.015271263244</v>
       </c>
       <c r="D166">
-        <v>141970.9468427874</v>
+        <v>66366.00222825908</v>
       </c>
       <c r="E166">
-        <v>44322.17511254385</v>
+        <v>9199.375825634044</v>
       </c>
       <c r="F166">
-        <v>512.7039406435094</v>
+        <v>564.3460480767885</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>452.9</v>
+        <v>499.6</v>
       </c>
       <c r="B167">
-        <v>317108.8165885804</v>
+        <v>113157.6504650294</v>
       </c>
       <c r="C167">
-        <v>13408.98426857664</v>
+        <v>10204.33554945044</v>
       </c>
       <c r="D167">
-        <v>124085.2664348814</v>
+        <v>67043.90237386138</v>
       </c>
       <c r="E167">
-        <v>40287.63038771893</v>
+        <v>9635.197635000324</v>
       </c>
       <c r="F167">
-        <v>572.1723258796021</v>
+        <v>819.0414020246808</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>455.2</v>
+        <v>501.9</v>
       </c>
       <c r="B168">
-        <v>290895.2362013959</v>
+        <v>115017.305668813</v>
       </c>
       <c r="C168">
-        <v>12659.64320279191</v>
+        <v>12140.59020538268</v>
       </c>
       <c r="D168">
-        <v>106059.5860269753</v>
+        <v>65875.17050781554</v>
       </c>
       <c r="E168">
-        <v>37013.085662894</v>
+        <v>8404.153699617309</v>
       </c>
       <c r="F168">
-        <v>741.6407111156946</v>
+        <v>802.5611276567447</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>457.4</v>
+        <v>504.2</v>
       </c>
       <c r="B169">
-        <v>265537.8984397413</v>
+        <v>96656.96087259665</v>
       </c>
       <c r="C169">
-        <v>11514.18653117175</v>
+        <v>7976.844861314898</v>
       </c>
       <c r="D169">
-        <v>93200.67433245644</v>
+        <v>62846.43864176965</v>
       </c>
       <c r="E169">
-        <v>32275.69505653972</v>
+        <v>8363.109764234287</v>
       </c>
       <c r="F169">
-        <v>180.6974274284782</v>
+        <v>546.0808532888084</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>459.7</v>
+        <v>506.4</v>
       </c>
       <c r="B170">
-        <v>252084.318052557</v>
+        <v>104214.4571544767</v>
       </c>
       <c r="C170">
-        <v>11934.84546538702</v>
+        <v>11444.56670611963</v>
       </c>
       <c r="D170">
-        <v>83834.99392455038</v>
+        <v>66349.39076989972</v>
       </c>
       <c r="E170">
-        <v>30741.1503317148</v>
+        <v>7748.632956476624</v>
       </c>
       <c r="F170">
-        <v>560.1658126645709</v>
+        <v>809.0127647629552</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>462.3</v>
+        <v>508.7</v>
       </c>
       <c r="B171">
-        <v>227922.0097887834</v>
+        <v>92244.11235826032</v>
       </c>
       <c r="C171">
-        <v>12903.85121710864</v>
+        <v>7920.821362051855</v>
       </c>
       <c r="D171">
-        <v>76659.00737648265</v>
+        <v>61180.65890385385</v>
       </c>
       <c r="E171">
-        <v>29015.14325147793</v>
+        <v>6537.589021093603</v>
       </c>
       <c r="F171">
-        <v>570.8692046705883</v>
+        <v>372.532490395019</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>464.6</v>
+        <v>511</v>
       </c>
       <c r="B172">
-        <v>207248.429401599</v>
+        <v>87153.76756204394</v>
       </c>
       <c r="C172">
-        <v>10994.51015132391</v>
+        <v>8347.076017984076</v>
       </c>
       <c r="D172">
-        <v>71843.3269685766</v>
+        <v>60471.92703780798</v>
       </c>
       <c r="E172">
-        <v>26030.598526653</v>
+        <v>6986.545085710581</v>
       </c>
       <c r="F172">
-        <v>430.3375899066789</v>
+        <v>556.0522160270809</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>466.9</v>
+        <v>513.6</v>
       </c>
       <c r="B173">
-        <v>195224.8490144147</v>
+        <v>82649.89953153842</v>
       </c>
       <c r="C173">
-        <v>11335.1690855392</v>
+        <v>8488.929107298754</v>
       </c>
       <c r="D173">
-        <v>69437.64656067056</v>
+        <v>60118.14318923438</v>
       </c>
       <c r="E173">
-        <v>24136.05380182808</v>
+        <v>5475.799767451508</v>
       </c>
       <c r="F173">
-        <v>979.8059751427716</v>
+        <v>691.3353841328919</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>469.2</v>
+        <v>515.8</v>
       </c>
       <c r="B174">
-        <v>181641.2686272302</v>
+        <v>73887.39581341838</v>
       </c>
       <c r="C174">
-        <v>11505.82801975448</v>
+        <v>6886.650952103508</v>
       </c>
       <c r="D174">
-        <v>67761.96615276448</v>
+        <v>58101.09531736445</v>
       </c>
       <c r="E174">
-        <v>23161.50907700315</v>
+        <v>6681.322959693853</v>
       </c>
       <c r="F174">
-        <v>599.2743603788642</v>
+        <v>764.2672956070389</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>471.4</v>
+        <v>518.1</v>
       </c>
       <c r="B175">
-        <v>169273.9308655757</v>
+        <v>83397.05101720197</v>
       </c>
       <c r="C175">
-        <v>11700.37134813432</v>
+        <v>9052.905608035711</v>
       </c>
       <c r="D175">
-        <v>61833.05445824563</v>
+        <v>59762.3634513186</v>
       </c>
       <c r="E175">
-        <v>20564.11847064888</v>
+        <v>4170.279024310824</v>
       </c>
       <c r="F175">
-        <v>348.3310766916477</v>
+        <v>537.7870212391026</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>473.7</v>
+        <v>520.4</v>
       </c>
       <c r="B176">
-        <v>157360.3504783913</v>
+        <v>73136.70622098559</v>
       </c>
       <c r="C176">
-        <v>12991.03028234959</v>
+        <v>8569.160263967948</v>
       </c>
       <c r="D176">
-        <v>60607.37405033957</v>
+        <v>55563.63158527271</v>
       </c>
       <c r="E176">
-        <v>20549.57374582396</v>
+        <v>4649.23508892781</v>
       </c>
       <c r="F176">
-        <v>607.7994619277404</v>
+        <v>471.3067468711646</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>476.3</v>
+        <v>523</v>
       </c>
       <c r="B177">
-        <v>147278.0422146176</v>
+        <v>65682.83819048011</v>
       </c>
       <c r="C177">
-        <v>9150.036034071196</v>
+        <v>8291.013353282629</v>
       </c>
       <c r="D177">
-        <v>57661.38750227183</v>
+        <v>53539.84773669911</v>
       </c>
       <c r="E177">
-        <v>18313.56666558708</v>
+        <v>4528.489770668737</v>
       </c>
       <c r="F177">
-        <v>568.5028539337577</v>
+        <v>586.5899149769757</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>478.2</v>
+        <v>525.2</v>
       </c>
       <c r="B178">
-        <v>139149.4323295523</v>
+        <v>60520.33447236004</v>
       </c>
       <c r="C178">
-        <v>11416.2325449447</v>
+        <v>6788.735198087346</v>
       </c>
       <c r="D178">
-        <v>59182.78194791467</v>
+        <v>54332.79986482918</v>
       </c>
       <c r="E178">
-        <v>17777.63841464475</v>
+        <v>3334.012962911066</v>
       </c>
       <c r="F178">
-        <v>416.3245634766165</v>
+        <v>859.5218264511241</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>480.8</v>
+        <v>527.5</v>
       </c>
       <c r="B179">
-        <v>151857.1240657786</v>
+        <v>63459.98967614376</v>
       </c>
       <c r="C179">
-        <v>10985.23829666632</v>
+        <v>7744.989854019586</v>
       </c>
       <c r="D179">
-        <v>55806.79539984693</v>
+        <v>50704.06799878333</v>
       </c>
       <c r="E179">
-        <v>16911.63133440788</v>
+        <v>2962.969027528053</v>
       </c>
       <c r="F179">
-        <v>367.027955482632</v>
+        <v>1013.041552083186</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>483.1</v>
+        <v>529.8</v>
       </c>
       <c r="B180">
-        <v>139623.5436785943</v>
+        <v>49669.64487992737</v>
       </c>
       <c r="C180">
-        <v>9285.89723088159</v>
+        <v>10741.24450995181</v>
       </c>
       <c r="D180">
-        <v>55121.11499194088</v>
+        <v>50305.33613273744</v>
       </c>
       <c r="E180">
-        <v>15367.08660958296</v>
+        <v>3081.925092145039</v>
       </c>
       <c r="F180">
-        <v>546.4963407187247</v>
+        <v>616.5612777152483</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>485.4</v>
+        <v>532</v>
       </c>
       <c r="B181">
-        <v>132359.9632914099</v>
+        <v>45837.14116180731</v>
       </c>
       <c r="C181">
-        <v>11706.55616509688</v>
+        <v>7038.966354756543</v>
       </c>
       <c r="D181">
-        <v>52745.4345840348</v>
+        <v>48278.28826086748</v>
       </c>
       <c r="E181">
-        <v>14492.54188475804</v>
+        <v>3457.448284387368</v>
       </c>
       <c r="F181">
-        <v>375.9647259548174</v>
+        <v>799.4931891893968</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>487.9</v>
+        <v>534.3</v>
       </c>
       <c r="B182">
-        <v>124973.897653166</v>
+        <v>50376.79636559092</v>
       </c>
       <c r="C182">
-        <v>9509.446310983054</v>
+        <v>7925.221010688765</v>
       </c>
       <c r="D182">
-        <v>52156.21674935429</v>
+        <v>49249.55639482163</v>
       </c>
       <c r="E182">
-        <v>14023.68892299182</v>
+        <v>2126.404349004348</v>
       </c>
       <c r="F182">
-        <v>586.256449037526</v>
+        <v>433.0129148214589</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>490.2</v>
+        <v>536.9</v>
       </c>
       <c r="B183">
-        <v>119710.3172659817</v>
+        <v>42552.92833508542</v>
       </c>
       <c r="C183">
-        <v>11400.10524519832</v>
+        <v>7027.074100003458</v>
       </c>
       <c r="D183">
-        <v>47990.53634144824</v>
+        <v>48935.77254624806</v>
       </c>
       <c r="E183">
-        <v>12009.14419816688</v>
+        <v>2825.659030745282</v>
       </c>
       <c r="F183">
-        <v>555.7248342736184</v>
+        <v>778.2960829272699</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>492.5</v>
+        <v>539.1</v>
       </c>
       <c r="B184">
-        <v>111346.7368787973</v>
+        <v>45590.42461696536</v>
       </c>
       <c r="C184">
-        <v>11540.76417941361</v>
+        <v>9814.795944808178</v>
       </c>
       <c r="D184">
-        <v>46024.85593354216</v>
+        <v>47488.7246743781</v>
       </c>
       <c r="E184">
-        <v>11774.59947334196</v>
+        <v>2891.182222987611</v>
       </c>
       <c r="F184">
-        <v>885.193219509709</v>
+        <v>1051.227994401416</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>494.8</v>
+        <v>541.4</v>
       </c>
       <c r="B185">
-        <v>104333.1564916129</v>
+        <v>40240.07982074897</v>
       </c>
       <c r="C185">
-        <v>9721.423113628876</v>
+        <v>4521.050600740415</v>
       </c>
       <c r="D185">
-        <v>46829.17552563611</v>
+        <v>44719.99280833223</v>
       </c>
       <c r="E185">
-        <v>12120.05474851704</v>
+        <v>2860.138287604597</v>
       </c>
       <c r="F185">
-        <v>344.6616047458015</v>
+        <v>884.7477200334786</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>497.1</v>
+        <v>543.6</v>
       </c>
       <c r="B186">
-        <v>91799.57610442853</v>
+        <v>39407.57610262903</v>
       </c>
       <c r="C186">
-        <v>8842.08204784416</v>
+        <v>5968.772445545135</v>
       </c>
       <c r="D186">
-        <v>41163.49511773002</v>
+        <v>44482.9449364623</v>
       </c>
       <c r="E186">
-        <v>9635.510023692115</v>
+        <v>2195.661479846919</v>
       </c>
       <c r="F186">
-        <v>414.1299899818941</v>
+        <v>707.6796315076272</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>499.6</v>
+        <v>545.9</v>
       </c>
       <c r="B187">
-        <v>90503.51046618469</v>
+        <v>31007.23130641264</v>
       </c>
       <c r="C187">
-        <v>9684.972193730322</v>
+        <v>5835.027101477372</v>
       </c>
       <c r="D187">
-        <v>41464.27728304952</v>
+        <v>42634.21307041643</v>
       </c>
       <c r="E187">
-        <v>10056.65706192589</v>
+        <v>2524.617544463906</v>
       </c>
       <c r="F187">
-        <v>664.4217130646027</v>
+        <v>651.1993571396893</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>501.9</v>
+        <v>548.2</v>
       </c>
       <c r="B188">
-        <v>92169.93007900025</v>
+        <v>32796.88651019625</v>
       </c>
       <c r="C188">
-        <v>11565.63112794562</v>
+        <v>6381.281757409575</v>
       </c>
       <c r="D188">
-        <v>39948.59687514347</v>
+        <v>43775.48120437058</v>
       </c>
       <c r="E188">
-        <v>8812.112337100965</v>
+        <v>2423.573609080883</v>
       </c>
       <c r="F188">
-        <v>643.8900983006954</v>
+        <v>744.7190827717545</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>504.2</v>
+        <v>550.7</v>
       </c>
       <c r="B189">
-        <v>73616.34969181591</v>
+        <v>37480.85955778708</v>
       </c>
       <c r="C189">
-        <v>7346.290062160893</v>
+        <v>6204.602035596785</v>
       </c>
       <c r="D189">
-        <v>36572.91646723742</v>
+        <v>40663.38134997287</v>
       </c>
       <c r="E189">
-        <v>8757.567612276045</v>
+        <v>1899.395418447161</v>
       </c>
       <c r="F189">
-        <v>383.3584835367878</v>
+        <v>829.4144367196486</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>506.4</v>
+        <v>552.7</v>
       </c>
       <c r="B190">
-        <v>80989.01193016127</v>
+        <v>37304.0379958598</v>
       </c>
       <c r="C190">
-        <v>10760.83339054073</v>
+        <v>7105.258258146532</v>
       </c>
       <c r="D190">
-        <v>39744.00477271857</v>
+        <v>44029.70146645475</v>
       </c>
       <c r="E190">
-        <v>8130.177005921775</v>
+        <v>2538.052865940192</v>
       </c>
       <c r="F190">
-        <v>642.4151998495697</v>
+        <v>651.1707198779652</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>508.7</v>
+        <v>555.3</v>
       </c>
       <c r="B191">
-        <v>68825.43154297693</v>
+        <v>37420.1699653543</v>
       </c>
       <c r="C191">
-        <v>7181.492324756</v>
+        <v>6127.111347461247</v>
       </c>
       <c r="D191">
-        <v>34228.32436481248</v>
+        <v>40185.91761788117</v>
       </c>
       <c r="E191">
-        <v>6905.632281096847</v>
+        <v>1147.307547681135</v>
       </c>
       <c r="F191">
-        <v>201.8835850856622</v>
+        <v>696.4538879837746</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>511</v>
+        <v>557.5</v>
       </c>
       <c r="B192">
-        <v>63541.8511557926</v>
+        <v>41927.66624723424</v>
       </c>
       <c r="C192">
-        <v>7552.151258971284</v>
+        <v>6684.833192265964</v>
       </c>
       <c r="D192">
-        <v>33172.64395690643</v>
+        <v>41658.86974601121</v>
       </c>
       <c r="E192">
-        <v>7341.087556271918</v>
+        <v>2782.830739923464</v>
       </c>
       <c r="F192">
-        <v>381.3519703217546</v>
+        <v>569.3857994579214</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>513.6</v>
+        <v>559.8</v>
       </c>
       <c r="B193">
-        <v>58819.54289201895</v>
+        <v>34627.32145101796</v>
       </c>
       <c r="C193">
-        <v>7631.157010692892</v>
+        <v>6471.087848198204</v>
       </c>
       <c r="D193">
-        <v>32426.65740883869</v>
+        <v>41160.13787996534</v>
       </c>
       <c r="E193">
-        <v>5815.080476035047</v>
+        <v>681.786804540443</v>
       </c>
       <c r="F193">
-        <v>512.0553623277722</v>
+        <v>692.9055250899853</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>515.8</v>
+        <v>562.1</v>
       </c>
       <c r="B194">
-        <v>49872.2051303643</v>
+        <v>36596.97665480146</v>
       </c>
       <c r="C194">
-        <v>5975.700339072751</v>
+        <v>6047.342504130407</v>
       </c>
       <c r="D194">
-        <v>30077.74571431987</v>
+        <v>39341.40601391948</v>
       </c>
       <c r="E194">
-        <v>7007.689869680778</v>
+        <v>1200.742869157421</v>
       </c>
       <c r="F194">
-        <v>581.1120786405559</v>
+        <v>686.4252507220469</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>518.1</v>
+        <v>564.7</v>
       </c>
       <c r="B195">
-        <v>59188.62474317998</v>
+        <v>32203.10862429608</v>
       </c>
       <c r="C195">
-        <v>8086.359273288002</v>
+        <v>6429.195593445085</v>
       </c>
       <c r="D195">
-        <v>31392.06530641378</v>
+        <v>41937.62216534589</v>
       </c>
       <c r="E195">
-        <v>4483.145144855849</v>
+        <v>619.9975508983543</v>
       </c>
       <c r="F195">
-        <v>350.5804638766483</v>
+        <v>501.7084188278581</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>520.4</v>
+        <v>566.9</v>
       </c>
       <c r="B196">
-        <v>48735.04435599552</v>
+        <v>43640.60490617602</v>
       </c>
       <c r="C196">
-        <v>7547.018207503304</v>
+        <v>6636.917438249839</v>
       </c>
       <c r="D196">
-        <v>26846.38489850774</v>
+        <v>41300.57429347594</v>
       </c>
       <c r="E196">
-        <v>4948.600420030929</v>
+        <v>1305.520743140693</v>
       </c>
       <c r="F196">
-        <v>280.0488491127392</v>
+        <v>974.6403303020052</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>523</v>
+        <v>569.2</v>
       </c>
       <c r="B197">
-        <v>41062.73609222197</v>
+        <v>41570.26010995963</v>
       </c>
       <c r="C197">
-        <v>7206.023959224913</v>
+        <v>7413.172094182042</v>
       </c>
       <c r="D197">
-        <v>24430.39835044</v>
+        <v>39881.84242743008</v>
       </c>
       <c r="E197">
-        <v>4812.593339794058</v>
+        <v>1144.47680775767</v>
       </c>
       <c r="F197">
-        <v>390.7522411187565</v>
+        <v>888.1600559340686</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>525.2</v>
+        <v>571.4</v>
       </c>
       <c r="B198">
-        <v>35715.39833056734</v>
+        <v>35277.75639183957</v>
       </c>
       <c r="C198">
-        <v>5650.567287604732</v>
+        <v>5620.893938986796</v>
       </c>
       <c r="D198">
-        <v>24891.48665592114</v>
+        <v>39234.79455556011</v>
       </c>
       <c r="E198">
-        <v>3605.202733439779</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>659.8089574315418</v>
+        <v>281.0919674082156</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>527.5</v>
+        <v>573.7</v>
       </c>
       <c r="B199">
-        <v>38461.81794338288</v>
+        <v>34087.41159562318</v>
       </c>
       <c r="C199">
-        <v>6551.226221820019</v>
+        <v>5957.148594918999</v>
       </c>
       <c r="D199">
-        <v>20915.80624801509</v>
+        <v>38916.06268951426</v>
       </c>
       <c r="E199">
-        <v>3220.658008614859</v>
+        <v>588.9560646169784</v>
       </c>
       <c r="F199">
-        <v>809.2773426676329</v>
+        <v>884.6116930402791</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>529.8</v>
+        <v>576.2</v>
       </c>
       <c r="B200">
-        <v>24478.23755619855</v>
+        <v>39781.38464321414</v>
       </c>
       <c r="C200">
-        <v>9491.885156035307</v>
+        <v>9160.468873106205</v>
       </c>
       <c r="D200">
-        <v>20170.12584010902</v>
+        <v>42693.96283511658</v>
       </c>
       <c r="E200">
-        <v>3326.113283789939</v>
+        <v>1254.777873983256</v>
       </c>
       <c r="F200">
-        <v>408.7457279037255</v>
+        <v>839.3070469881734</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>532</v>
+        <v>578.5</v>
       </c>
       <c r="B201">
-        <v>20460.89979454392</v>
+        <v>44701.03984699774</v>
       </c>
       <c r="C201">
-        <v>5736.428484415126</v>
+        <v>5826.723529038434</v>
       </c>
       <c r="D201">
-        <v>17811.21414559016</v>
+        <v>41755.23096907072</v>
       </c>
       <c r="E201">
-        <v>3688.722677435653</v>
+        <v>2353.733938600242</v>
       </c>
       <c r="F201">
-        <v>587.802444216509</v>
+        <v>832.8267726202355</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>534.3</v>
+        <v>580.8</v>
       </c>
       <c r="B202">
-        <v>24807.31940735958</v>
+        <v>31120.69505078135</v>
       </c>
       <c r="C202">
-        <v>6567.087418630428</v>
+        <v>5802.978184970671</v>
       </c>
       <c r="D202">
-        <v>18435.53373768412</v>
+        <v>41996.49910302486</v>
       </c>
       <c r="E202">
-        <v>2344.177952610733</v>
+        <v>1412.690003217229</v>
       </c>
       <c r="F202">
-        <v>217.2708294525999</v>
+        <v>876.3464982522994</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>536.9</v>
+        <v>583.1</v>
       </c>
       <c r="B203">
-        <v>16765.01114358592</v>
+        <v>32120.35025456496</v>
       </c>
       <c r="C203">
-        <v>5606.093170352036</v>
+        <v>7129.232840902871</v>
       </c>
       <c r="D203">
-        <v>17729.54718961638</v>
+        <v>41687.76723697899</v>
       </c>
       <c r="E203">
-        <v>3028.170872373862</v>
+        <v>2111.646067834207</v>
       </c>
       <c r="F203">
-        <v>557.9742214586172</v>
+        <v>1249.866223884363</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>539.1</v>
+        <v>585.3</v>
       </c>
       <c r="B204">
-        <v>19617.67338193129</v>
+        <v>41947.8465364449</v>
       </c>
       <c r="C204">
-        <v>8340.636498731859</v>
+        <v>5016.954685707628</v>
       </c>
       <c r="D204">
-        <v>15950.63549509755</v>
+        <v>43770.71936510905</v>
       </c>
       <c r="E204">
-        <v>3080.78026601959</v>
+        <v>1097.169260076537</v>
       </c>
       <c r="F204">
-        <v>827.0309377714025</v>
+        <v>862.7981353585099</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>541.4</v>
+        <v>587.6</v>
       </c>
       <c r="B205">
-        <v>14074.09299474695</v>
+        <v>30047.50174022851</v>
       </c>
       <c r="C205">
-        <v>2991.295432947143</v>
+        <v>3573.209341639827</v>
       </c>
       <c r="D205">
-        <v>12834.9550871915</v>
+        <v>43481.98749906318</v>
       </c>
       <c r="E205">
-        <v>3036.235541194663</v>
+        <v>736.1253246935157</v>
       </c>
       <c r="F205">
-        <v>656.4993230074933</v>
+        <v>866.3178609905733</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>543.6</v>
+        <v>590.2</v>
       </c>
       <c r="B206">
-        <v>13056.75523309232</v>
+        <v>35973.63370972301</v>
       </c>
       <c r="C206">
-        <v>4385.838761326966</v>
+        <v>3545.062430954524</v>
       </c>
       <c r="D206">
-        <v>12266.04339267264</v>
+        <v>44558.2036504896</v>
       </c>
       <c r="E206">
-        <v>2358.844934840385</v>
+        <v>1725.38000643445</v>
       </c>
       <c r="F206">
-        <v>475.5560393202786</v>
+        <v>1051.601029096383</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>545.9</v>
+        <v>592.4</v>
       </c>
       <c r="B207">
-        <v>4463.174845907981</v>
+        <v>42661.12999160307</v>
       </c>
       <c r="C207">
-        <v>4196.497695542253</v>
+        <v>5312.784275759259</v>
       </c>
       <c r="D207">
-        <v>10070.36298476657</v>
+        <v>46321.15577861962</v>
       </c>
       <c r="E207">
-        <v>2674.300210015464</v>
+        <v>1380.903198676787</v>
       </c>
       <c r="F207">
-        <v>415.0244245563695</v>
+        <v>854.5329405705315</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>548.2</v>
+        <v>594.7</v>
       </c>
       <c r="B208">
-        <v>6059.594458723532</v>
+        <v>45930.78519538668</v>
       </c>
       <c r="C208">
-        <v>4687.156629757519</v>
+        <v>6129.038931691481</v>
       </c>
       <c r="D208">
-        <v>10864.68257686048</v>
+        <v>47862.42391257379</v>
       </c>
       <c r="E208">
-        <v>2559.755485190535</v>
+        <v>1229.859263293765</v>
       </c>
       <c r="F208">
-        <v>504.4928097924619</v>
+        <v>878.0526662025932</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>550.7</v>
+        <v>596.9</v>
       </c>
       <c r="B209">
-        <v>10533.52882047968</v>
+        <v>32948.28147726662</v>
       </c>
       <c r="C209">
-        <v>4450.046775643696</v>
+        <v>3736.760776496216</v>
       </c>
       <c r="D209">
-        <v>7375.46474218</v>
+        <v>48375.37604070384</v>
       </c>
       <c r="E209">
-        <v>2020.902523424314</v>
+        <v>1085.382455536095</v>
       </c>
       <c r="F209">
-        <v>584.7845328751705</v>
+        <v>890.984577676742</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>552.7</v>
+        <v>599.1</v>
       </c>
       <c r="B210">
-        <v>10188.67630988456</v>
+        <v>47495.77775914656</v>
       </c>
       <c r="C210">
-        <v>5302.358892352626</v>
+        <v>2924.482621300951</v>
       </c>
       <c r="D210">
-        <v>10440.09047443558</v>
+        <v>46638.32816883388</v>
       </c>
       <c r="E210">
-        <v>2647.820154011337</v>
+        <v>690.9056477784243</v>
       </c>
       <c r="F210">
-        <v>403.017911341338</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>555.3</v>
-      </c>
-      <c r="B211">
-        <v>10086.36804611101</v>
-      </c>
-      <c r="C211">
-        <v>4261.36464407427</v>
-      </c>
-      <c r="D211">
-        <v>6204.103926367879</v>
-      </c>
-      <c r="E211">
-        <v>1241.813073774474</v>
-      </c>
-      <c r="F211">
-        <v>443.721303347354</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>557.5</v>
-      </c>
-      <c r="B212">
-        <v>14409.03028445638</v>
-      </c>
-      <c r="C212">
-        <v>4765.90797245409</v>
-      </c>
-      <c r="D212">
-        <v>7345.192231849021</v>
-      </c>
-      <c r="E212">
-        <v>2864.422467420196</v>
-      </c>
-      <c r="F212">
-        <v>312.7780196601393</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>559.8</v>
-      </c>
-      <c r="B213">
-        <v>6915.449897271928</v>
-      </c>
-      <c r="C213">
-        <v>4496.566906669377</v>
-      </c>
-      <c r="D213">
-        <v>6499.511823942976</v>
-      </c>
-      <c r="E213">
-        <v>749.8777425952758</v>
-      </c>
-      <c r="F213">
-        <v>432.2464048962302</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>562.1</v>
-      </c>
-      <c r="B214">
-        <v>8691.869510087594</v>
-      </c>
-      <c r="C214">
-        <v>4017.225840884643</v>
-      </c>
-      <c r="D214">
-        <v>4333.831416036886</v>
-      </c>
-      <c r="E214">
-        <v>1255.333017770346</v>
-      </c>
-      <c r="F214">
-        <v>421.7147901323226</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>564.7</v>
-      </c>
-      <c r="B215">
-        <v>4079.561246313935</v>
-      </c>
-      <c r="C215">
-        <v>4336.231592606251</v>
-      </c>
-      <c r="D215">
-        <v>6537.844867969161</v>
-      </c>
-      <c r="E215">
-        <v>659.3259375334683</v>
-      </c>
-      <c r="F215">
-        <v>232.4181821383399</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>566.9</v>
-      </c>
-      <c r="B216">
-        <v>15332.2234846593</v>
-      </c>
-      <c r="C216">
-        <v>4490.77492098611</v>
-      </c>
-      <c r="D216">
-        <v>5568.933173450332</v>
-      </c>
-      <c r="E216">
-        <v>1331.935331179198</v>
-      </c>
-      <c r="F216">
-        <v>701.4748984511239</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>569.2</v>
-      </c>
-      <c r="B217">
-        <v>13068.64309747497</v>
-      </c>
-      <c r="C217">
-        <v>5211.433855201376</v>
-      </c>
-      <c r="D217">
-        <v>3803.252765544243</v>
-      </c>
-      <c r="E217">
-        <v>1157.39060635427</v>
-      </c>
-      <c r="F217">
-        <v>610.9432836872161</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>571.4</v>
-      </c>
-      <c r="B218">
-        <v>6591.305335820327</v>
-      </c>
-      <c r="C218">
-        <v>3365.977183581217</v>
-      </c>
-      <c r="D218">
-        <v>2824.341071025428</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>573.7</v>
-      </c>
-      <c r="B219">
-        <v>5207.724948635994</v>
-      </c>
-      <c r="C219">
-        <v>3646.636117796483</v>
-      </c>
-      <c r="D219">
-        <v>2158.660663119339</v>
-      </c>
-      <c r="E219">
-        <v>575.4552751750707</v>
-      </c>
-      <c r="F219">
-        <v>599.4683852360922</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>576.2</v>
-      </c>
-      <c r="B220">
-        <v>10691.65931039215</v>
-      </c>
-      <c r="C220">
-        <v>6789.526263682645</v>
-      </c>
-      <c r="D220">
-        <v>5559.44282843883</v>
-      </c>
-      <c r="E220">
-        <v>1226.60231340885</v>
-      </c>
-      <c r="F220">
-        <v>549.7601083188008</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>578.5</v>
-      </c>
-      <c r="B221">
-        <v>15418.07892320769</v>
-      </c>
-      <c r="C221">
-        <v>3400.185197897947</v>
-      </c>
-      <c r="D221">
-        <v>4273.762420532785</v>
-      </c>
-      <c r="E221">
-        <v>2312.05758858393</v>
-      </c>
-      <c r="F221">
-        <v>539.2284935548935</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>580.8</v>
-      </c>
-      <c r="B222">
-        <v>1644.498536023362</v>
-      </c>
-      <c r="C222">
-        <v>3320.844132113234</v>
-      </c>
-      <c r="D222">
-        <v>4168.082012626724</v>
-      </c>
-      <c r="E222">
-        <v>1357.51286375901</v>
-      </c>
-      <c r="F222">
-        <v>578.6968787909843</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>583.1</v>
-      </c>
-      <c r="B223">
-        <v>2450.918148839028</v>
-      </c>
-      <c r="C223">
-        <v>4591.5030663285</v>
-      </c>
-      <c r="D223">
-        <v>3512.40160472065</v>
-      </c>
-      <c r="E223">
-        <v>2042.968138934081</v>
-      </c>
-      <c r="F223">
-        <v>948.1652640270768</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>585.3</v>
-      </c>
-      <c r="B224">
-        <v>12093.58038718439</v>
-      </c>
-      <c r="C224">
-        <v>2426.046394708341</v>
-      </c>
-      <c r="D224">
-        <v>5263.489910201806</v>
-      </c>
-      <c r="E224">
-        <v>1015.577532579811</v>
-      </c>
-      <c r="F224">
-        <v>557.2219803398605</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>587.6</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-      <c r="C225">
-        <v>926.7053289236064</v>
-      </c>
-      <c r="D225">
-        <v>4627.809502295746</v>
-      </c>
-      <c r="E225">
-        <v>641.032807754882</v>
-      </c>
-      <c r="F225">
-        <v>556.6903655759529</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>590.2</v>
-      </c>
-      <c r="B226">
-        <v>5707.691736226398</v>
-      </c>
-      <c r="C226">
-        <v>835.7110806452147</v>
-      </c>
-      <c r="D226">
-        <v>5311.822954228006</v>
-      </c>
-      <c r="E226">
-        <v>1615.025727518004</v>
-      </c>
-      <c r="F226">
-        <v>737.3937575819702</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>592.4</v>
-      </c>
-      <c r="B227">
-        <v>12210.35397457176</v>
-      </c>
-      <c r="C227">
-        <v>2550.254409025074</v>
-      </c>
-      <c r="D227">
-        <v>6742.911259709163</v>
-      </c>
-      <c r="E227">
-        <v>1257.635121163734</v>
-      </c>
-      <c r="F227">
-        <v>536.4504738947542</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>594.7</v>
-      </c>
-      <c r="B228">
-        <v>15286.77358738743</v>
-      </c>
-      <c r="C228">
-        <v>3310.913343240325</v>
-      </c>
-      <c r="D228">
-        <v>7937.230851803102</v>
-      </c>
-      <c r="E228">
-        <v>1093.090396338805</v>
-      </c>
-      <c r="F228">
-        <v>555.9188591308446</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>596.9</v>
-      </c>
-      <c r="B229">
-        <v>2119.435825732731</v>
-      </c>
-      <c r="C229">
-        <v>865.4566716201807</v>
-      </c>
-      <c r="D229">
-        <v>8118.319157284259</v>
-      </c>
-      <c r="E229">
-        <v>935.6997899845355</v>
-      </c>
-      <c r="F229">
-        <v>564.9755754436303</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>599.1</v>
-      </c>
-      <c r="B230">
-        <v>16482.09806407816</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>6049.407462765401</v>
-      </c>
-      <c r="E230">
-        <v>528.3091836302565</v>
-      </c>
-      <c r="F230">
-        <v>514.032291756412</v>
+        <v>843.9164891508885</v>
       </c>
     </row>
   </sheetData>
